--- a/Checklist-CoverType.xlsx
+++ b/Checklist-CoverType.xlsx
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="136">
   <si>
     <t>Please fill the following details</t>
   </si>
@@ -440,7 +440,37 @@
     <t>RANDOM FOREST</t>
   </si>
   <si>
-    <t>K=</t>
+    <t>mtry</t>
+  </si>
+  <si>
+    <t>ntree</t>
+  </si>
+  <si>
+    <t>Gamma</t>
+  </si>
+  <si>
+    <t>CP</t>
+  </si>
+  <si>
+    <t>MINCASES</t>
+  </si>
+  <si>
+    <t>CF</t>
+  </si>
+  <si>
+    <t>KERNEL</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>K=10</t>
+  </si>
+  <si>
+    <t>K=15</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -669,7 +699,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -735,11 +765,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -748,18 +773,27 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1955,7 +1989,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+      <selection activeCell="C7" sqref="C7:G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2003,16 +2037,16 @@
         <v>67.069999999999993</v>
       </c>
       <c r="D2" s="37">
-        <v>10</v>
+        <v>69</v>
       </c>
       <c r="E2" s="37">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="F2" s="37">
         <v>0</v>
       </c>
       <c r="G2" s="37">
-        <v>0</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -2026,16 +2060,16 @@
         <v>67.069999999999993</v>
       </c>
       <c r="D3" s="42">
-        <v>10</v>
+        <v>63</v>
       </c>
       <c r="E3" s="42">
-        <v>10</v>
+        <v>62</v>
       </c>
       <c r="F3" s="42">
         <v>0</v>
       </c>
       <c r="G3" s="42">
-        <v>0</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -2052,7 +2086,7 @@
         <v>77</v>
       </c>
       <c r="E4" s="42">
-        <v>95</v>
+        <v>72</v>
       </c>
       <c r="F4" s="42">
         <f>2*(G4*D4)/(G4+D4)</f>
@@ -2070,17 +2104,20 @@
         <v>67</v>
       </c>
       <c r="C5" s="37">
-        <v>99.84</v>
+        <v>72</v>
       </c>
       <c r="D5" s="37">
-        <v>99.99</v>
+        <v>71</v>
       </c>
       <c r="E5" s="37">
-        <v>99.8</v>
-      </c>
-      <c r="F5" s="42"/>
+        <v>68</v>
+      </c>
+      <c r="F5" s="42">
+        <f>2*(G5*D5)/(G5+D5)</f>
+        <v>74.786666666666662</v>
+      </c>
       <c r="G5" s="37">
-        <v>99.24</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -2090,11 +2127,22 @@
       <c r="B6" s="38" t="s">
         <v>114</v>
       </c>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="42"/>
-      <c r="G6" s="37"/>
+      <c r="C6" s="42">
+        <v>69</v>
+      </c>
+      <c r="D6" s="42">
+        <v>66</v>
+      </c>
+      <c r="E6" s="42">
+        <v>68</v>
+      </c>
+      <c r="F6" s="42">
+        <f>2*(G6*D6)/(G6+D6)</f>
+        <v>67.466666666666669</v>
+      </c>
+      <c r="G6" s="37">
+        <v>69</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="41" t="s">
@@ -2104,7 +2152,7 @@
         <v>113</v>
       </c>
       <c r="C7" s="37">
-        <v>79.77</v>
+        <v>82</v>
       </c>
       <c r="D7" s="37">
         <v>70</v>
@@ -2128,10 +2176,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N38"/>
+  <dimension ref="A1:N41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+    <sheetView tabSelected="1" topLeftCell="C20" workbookViewId="0">
+      <selection activeCell="N35" sqref="N35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2166,13 +2214,13 @@
       <c r="B2" s="47" t="s">
         <v>70</v>
       </c>
-      <c r="C2" s="53"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="55"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="72"/>
+      <c r="I2" s="73"/>
       <c r="J2" s="45" t="s">
         <v>57</v>
       </c>
@@ -2191,14 +2239,14 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="46"/>
-      <c r="B3" s="57"/>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="58"/>
-      <c r="H3" s="58"/>
-      <c r="I3" s="59"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="56"/>
       <c r="J3" s="42"/>
       <c r="K3" s="42"/>
       <c r="L3" s="42"/>
@@ -2207,154 +2255,177 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="46"/>
-      <c r="C4" s="56" t="s">
+      <c r="C4" s="75" t="s">
         <v>115</v>
       </c>
-      <c r="D4" s="67"/>
-      <c r="E4" s="56" t="s">
+      <c r="D4" s="63"/>
+      <c r="E4" s="53" t="s">
         <v>116</v>
       </c>
-      <c r="F4" s="58"/>
-      <c r="G4" s="58"/>
-      <c r="H4" s="58"/>
-      <c r="I4" s="59"/>
-      <c r="J4" s="42">
-        <v>82.1</v>
-      </c>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="56"/>
+      <c r="J4" s="42"/>
       <c r="K4" s="42"/>
       <c r="L4" s="42"/>
-      <c r="M4" s="42"/>
+      <c r="M4" s="42" t="e">
+        <f>2*(K4*L4)/(K4+L4)</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="N4" s="42"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="46"/>
-      <c r="B5" s="72" t="s">
+      <c r="B5" s="66" t="s">
         <v>62</v>
       </c>
-      <c r="D5" s="67" t="s">
+      <c r="C5" s="66" t="s">
+        <v>62</v>
+      </c>
+      <c r="D5" s="63" t="s">
         <v>120</v>
       </c>
-      <c r="E5" s="58"/>
-      <c r="F5" s="58"/>
-      <c r="G5" s="58"/>
-      <c r="H5" s="58"/>
-      <c r="I5" s="59"/>
-      <c r="J5" s="42"/>
-      <c r="K5" s="42"/>
-      <c r="L5" s="42"/>
-      <c r="M5" s="42"/>
-      <c r="N5" s="42"/>
+      <c r="E5" s="55">
+        <v>10</v>
+      </c>
+      <c r="F5" s="55"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="55"/>
+      <c r="I5" s="56"/>
+      <c r="J5" s="42">
+        <v>66</v>
+      </c>
+      <c r="K5" s="42">
+        <v>65</v>
+      </c>
+      <c r="L5" s="42">
+        <v>66</v>
+      </c>
+      <c r="M5" s="42">
+        <f t="shared" ref="M5:M6" si="0">2*(K5*L5)/(K5+L5)</f>
+        <v>65.496183206106863</v>
+      </c>
+      <c r="N5" s="42">
+        <v>66</v>
+      </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="46"/>
-      <c r="D6" s="67" t="s">
+      <c r="D6" s="63" t="s">
         <v>121</v>
       </c>
-      <c r="E6" s="58"/>
-      <c r="F6" s="58"/>
-      <c r="G6" s="58"/>
-      <c r="H6" s="58"/>
-      <c r="I6" s="59"/>
-      <c r="J6" s="42"/>
-      <c r="K6" s="42"/>
-      <c r="L6" s="42"/>
-      <c r="M6" s="42"/>
-      <c r="N6" s="42"/>
+      <c r="E6" s="55">
+        <v>10</v>
+      </c>
+      <c r="F6" s="55"/>
+      <c r="G6" s="55"/>
+      <c r="H6" s="55"/>
+      <c r="I6" s="56"/>
+      <c r="J6" s="42">
+        <v>65</v>
+      </c>
+      <c r="K6" s="42">
+        <v>62</v>
+      </c>
+      <c r="L6" s="42">
+        <v>67</v>
+      </c>
+      <c r="M6" s="42">
+        <f t="shared" si="0"/>
+        <v>64.403100775193792</v>
+      </c>
+      <c r="N6" s="42">
+        <v>69</v>
+      </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="46"/>
-      <c r="D7" s="67" t="s">
+      <c r="D7" s="63" t="s">
         <v>120</v>
       </c>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="57"/>
-      <c r="H7" s="57"/>
-      <c r="I7" s="59"/>
+      <c r="E7" s="54">
+        <v>5</v>
+      </c>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="56"/>
       <c r="J7" s="42">
         <v>65</v>
       </c>
       <c r="K7" s="42">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="L7" s="42">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="M7" s="42">
-        <v>0</v>
+        <f t="shared" ref="M5:M18" si="1">2*(K7*L7)/(K7+L7)</f>
+        <v>62.4</v>
       </c>
       <c r="N7" s="42">
-        <v>10</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="46"/>
-      <c r="B8" s="72"/>
-      <c r="D8" s="67" t="s">
+      <c r="B8" s="66"/>
+      <c r="D8" s="63" t="s">
         <v>121</v>
       </c>
-      <c r="E8" s="57"/>
-      <c r="F8" s="57"/>
-      <c r="G8" s="59"/>
-      <c r="H8" s="57"/>
-      <c r="I8" s="57"/>
+      <c r="E8" s="74">
+        <v>5</v>
+      </c>
+      <c r="F8" s="54"/>
+      <c r="G8" s="56"/>
+      <c r="H8" s="54"/>
+      <c r="I8" s="54"/>
       <c r="J8" s="42">
         <v>64</v>
       </c>
       <c r="K8" s="42">
-        <v>10</v>
+        <v>66</v>
       </c>
       <c r="L8" s="42">
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="M8" s="42">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>67.466666666666669</v>
       </c>
       <c r="N8" s="42">
-        <v>10</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="46"/>
-      <c r="B9" s="72"/>
-      <c r="C9" s="57"/>
-      <c r="D9" s="57"/>
-      <c r="E9" s="57"/>
-      <c r="F9" s="57"/>
-      <c r="G9" s="57"/>
-      <c r="H9" s="57"/>
-      <c r="I9" s="59"/>
-      <c r="J9" s="42">
-        <v>64</v>
-      </c>
-      <c r="K9" s="42">
-        <v>10</v>
-      </c>
-      <c r="L9" s="42">
-        <v>0</v>
-      </c>
-      <c r="M9" s="42">
-        <v>0</v>
-      </c>
-      <c r="N9" s="42">
-        <v>10</v>
-      </c>
+      <c r="B9" s="66"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="54"/>
+      <c r="E9" s="54"/>
+      <c r="F9" s="54"/>
+      <c r="G9" s="54"/>
+      <c r="H9" s="54"/>
+      <c r="I9" s="56"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="46"/>
-      <c r="B10" s="72"/>
-      <c r="C10" s="71" t="s">
+      <c r="B10" s="66"/>
+      <c r="C10" s="65" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="60"/>
-      <c r="E10" s="60"/>
-      <c r="F10" s="60"/>
-      <c r="G10" s="60"/>
-      <c r="H10" s="57"/>
-      <c r="I10" s="59"/>
-      <c r="J10" s="42">
-        <v>67</v>
-      </c>
+      <c r="D10" s="57"/>
+      <c r="E10" s="57" t="s">
+        <v>129</v>
+      </c>
+      <c r="F10" s="57" t="s">
+        <v>130</v>
+      </c>
+      <c r="G10" s="57"/>
+      <c r="H10" s="54"/>
+      <c r="I10" s="56"/>
+      <c r="J10" s="42"/>
       <c r="K10" s="42"/>
       <c r="L10" s="42"/>
       <c r="M10" s="42"/>
@@ -2362,100 +2433,152 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="46"/>
-      <c r="B11" s="72" t="s">
+      <c r="B11" s="66" t="s">
         <v>64</v>
       </c>
-      <c r="C11" s="61" t="s">
+      <c r="C11" s="68" t="s">
         <v>117</v>
       </c>
-      <c r="D11" s="67" t="s">
+      <c r="D11" s="63" t="s">
         <v>120</v>
       </c>
-      <c r="E11" s="57"/>
-      <c r="F11" s="57"/>
-      <c r="G11" s="57"/>
-      <c r="H11" s="62"/>
-      <c r="I11" s="59"/>
+      <c r="E11" s="54">
+        <v>20</v>
+      </c>
+      <c r="F11" s="54">
+        <v>70</v>
+      </c>
+      <c r="G11" s="54"/>
+      <c r="H11" s="59"/>
+      <c r="I11" s="56"/>
       <c r="J11" s="42">
         <v>90</v>
       </c>
-      <c r="K11" s="42"/>
-      <c r="L11" s="42"/>
-      <c r="M11" s="42"/>
-      <c r="N11" s="42"/>
+      <c r="K11" s="42">
+        <v>79</v>
+      </c>
+      <c r="L11" s="42">
+        <v>80</v>
+      </c>
+      <c r="M11" s="42">
+        <f t="shared" si="1"/>
+        <v>79.496855345911953</v>
+      </c>
+      <c r="N11" s="42">
+        <v>88</v>
+      </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="46"/>
-      <c r="B12" s="72"/>
-      <c r="C12" s="68"/>
-      <c r="D12" s="67" t="s">
+      <c r="B12" s="66"/>
+      <c r="C12" s="63"/>
+      <c r="D12" s="63" t="s">
         <v>121</v>
       </c>
-      <c r="E12" s="57"/>
-      <c r="F12" s="57"/>
-      <c r="G12" s="57"/>
-      <c r="H12" s="62"/>
-      <c r="I12" s="59"/>
-      <c r="J12" s="42"/>
-      <c r="K12" s="42"/>
-      <c r="L12" s="42"/>
-      <c r="M12" s="42"/>
-      <c r="N12" s="42"/>
+      <c r="E12" s="54">
+        <v>20</v>
+      </c>
+      <c r="F12" s="54">
+        <v>70</v>
+      </c>
+      <c r="G12" s="54"/>
+      <c r="H12" s="59"/>
+      <c r="I12" s="56"/>
+      <c r="J12" s="42">
+        <v>88</v>
+      </c>
+      <c r="K12" s="42">
+        <v>87</v>
+      </c>
+      <c r="L12" s="42">
+        <v>86</v>
+      </c>
+      <c r="M12" s="42">
+        <f t="shared" si="1"/>
+        <v>86.497109826589593</v>
+      </c>
+      <c r="N12" s="42">
+        <v>81</v>
+      </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="46"/>
-      <c r="B13" s="72"/>
-      <c r="C13" s="63" t="s">
+      <c r="B13" s="66"/>
+      <c r="C13" s="57" t="s">
         <v>117</v>
       </c>
-      <c r="D13" s="67" t="s">
+      <c r="D13" s="63" t="s">
         <v>120</v>
       </c>
-      <c r="E13" s="57"/>
-      <c r="F13" s="57"/>
-      <c r="G13" s="57"/>
-      <c r="H13" s="57"/>
-      <c r="I13" s="59"/>
+      <c r="E13" s="54">
+        <v>50</v>
+      </c>
+      <c r="F13" s="54">
+        <v>80</v>
+      </c>
+      <c r="G13" s="54"/>
+      <c r="H13" s="54"/>
+      <c r="I13" s="56"/>
       <c r="J13" s="42">
         <v>89</v>
       </c>
-      <c r="K13" s="42"/>
-      <c r="L13" s="42"/>
-      <c r="M13" s="42"/>
-      <c r="N13" s="42"/>
+      <c r="K13" s="42">
+        <v>77</v>
+      </c>
+      <c r="L13" s="42">
+        <v>74</v>
+      </c>
+      <c r="M13" s="42">
+        <f t="shared" si="1"/>
+        <v>75.47019867549669</v>
+      </c>
+      <c r="N13" s="42">
+        <v>88</v>
+      </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="46"/>
-      <c r="B14" s="72"/>
-      <c r="C14" s="63"/>
-      <c r="D14" s="67" t="s">
+      <c r="B14" s="66"/>
+      <c r="C14" s="57"/>
+      <c r="D14" s="63" t="s">
         <v>121</v>
       </c>
-      <c r="E14" s="57"/>
-      <c r="F14" s="57"/>
-      <c r="G14" s="57"/>
-      <c r="H14" s="57"/>
-      <c r="I14" s="59"/>
-      <c r="J14" s="42"/>
-      <c r="K14" s="42"/>
-      <c r="L14" s="42"/>
-      <c r="M14" s="42"/>
-      <c r="N14" s="42"/>
+      <c r="E14" s="54">
+        <v>50</v>
+      </c>
+      <c r="F14" s="54">
+        <v>80</v>
+      </c>
+      <c r="G14" s="54"/>
+      <c r="H14" s="54"/>
+      <c r="I14" s="56"/>
+      <c r="J14" s="42">
+        <v>87</v>
+      </c>
+      <c r="K14" s="42">
+        <v>79</v>
+      </c>
+      <c r="L14" s="42">
+        <v>75</v>
+      </c>
+      <c r="M14" s="42">
+        <f>2*(K14*L14)/(K14+L14)</f>
+        <v>76.948051948051955</v>
+      </c>
+      <c r="N14" s="42">
+        <v>81</v>
+      </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="46"/>
-      <c r="B15" s="72"/>
-      <c r="C15" s="64" t="s">
-        <v>122</v>
-      </c>
-      <c r="D15" s="67" t="s">
-        <v>120</v>
-      </c>
-      <c r="E15" s="57"/>
-      <c r="F15" s="57"/>
-      <c r="G15" s="57"/>
-      <c r="H15" s="57"/>
-      <c r="I15" s="59"/>
+      <c r="B15" s="66"/>
+      <c r="C15" s="57"/>
+      <c r="D15" s="63"/>
+      <c r="E15" s="54"/>
+      <c r="F15" s="54"/>
+      <c r="G15" s="54"/>
+      <c r="H15" s="54"/>
+      <c r="I15" s="56"/>
       <c r="J15" s="42"/>
       <c r="K15" s="42"/>
       <c r="L15" s="42"/>
@@ -2464,16 +2587,20 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="46"/>
-      <c r="B16" s="72"/>
-      <c r="C16" s="64"/>
-      <c r="D16" s="67" t="s">
-        <v>121</v>
-      </c>
-      <c r="E16" s="57"/>
-      <c r="F16" s="57"/>
-      <c r="G16" s="57"/>
-      <c r="H16" s="57"/>
-      <c r="I16" s="59"/>
+      <c r="B16" s="66"/>
+      <c r="C16" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" s="63"/>
+      <c r="E16" s="66" t="s">
+        <v>128</v>
+      </c>
+      <c r="F16" s="66" t="s">
+        <v>129</v>
+      </c>
+      <c r="G16" s="54"/>
+      <c r="H16" s="54"/>
+      <c r="I16" s="56"/>
       <c r="J16" s="42"/>
       <c r="K16" s="42"/>
       <c r="L16" s="42"/>
@@ -2482,282 +2609,710 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="46"/>
-      <c r="B17" s="72"/>
-      <c r="C17" s="65" t="s">
+      <c r="B17" s="66"/>
+      <c r="C17" s="69" t="s">
         <v>122</v>
       </c>
-      <c r="D17" s="67" t="s">
+      <c r="D17" s="63" t="s">
         <v>120</v>
       </c>
-      <c r="E17" s="57"/>
-      <c r="F17" s="57"/>
-      <c r="G17" s="57"/>
-      <c r="H17" s="57"/>
-      <c r="I17" s="59"/>
+      <c r="E17" s="54">
+        <v>0.05</v>
+      </c>
+      <c r="F17" s="54">
+        <v>50</v>
+      </c>
+      <c r="G17" s="54"/>
+      <c r="H17" s="54"/>
+      <c r="I17" s="56"/>
       <c r="J17" s="42">
-        <v>79.77</v>
-      </c>
-      <c r="K17">
-        <v>69</v>
-      </c>
-      <c r="L17">
-        <v>79</v>
-      </c>
-      <c r="M17">
-        <f>2*(L17*K17)/(L17+K17)</f>
-        <v>73.662162162162161</v>
-      </c>
-      <c r="N17">
-        <v>97</v>
+        <v>68</v>
+      </c>
+      <c r="K17" s="42">
+        <v>62</v>
+      </c>
+      <c r="L17" s="42">
+        <v>59</v>
+      </c>
+      <c r="M17" s="42">
+        <f>2*(K17*L17)/(K17+L17)</f>
+        <v>60.462809917355372</v>
+      </c>
+      <c r="N17" s="42">
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="46"/>
-      <c r="B18" s="72"/>
-      <c r="C18" s="65"/>
-      <c r="D18" s="67" t="s">
+      <c r="B18" s="66"/>
+      <c r="C18" s="69"/>
+      <c r="D18" s="63" t="s">
         <v>121</v>
       </c>
-      <c r="E18" s="57"/>
-      <c r="F18" s="57"/>
-      <c r="G18" s="57"/>
-      <c r="H18" s="57"/>
-      <c r="I18" s="59"/>
-      <c r="J18" s="42"/>
+      <c r="E18" s="54">
+        <v>0.05</v>
+      </c>
+      <c r="F18" s="54">
+        <v>50</v>
+      </c>
+      <c r="G18" s="54"/>
+      <c r="H18" s="54"/>
+      <c r="I18" s="56"/>
+      <c r="J18" s="42">
+        <v>67</v>
+      </c>
+      <c r="K18" s="42">
+        <v>66</v>
+      </c>
+      <c r="L18" s="42">
+        <v>71</v>
+      </c>
+      <c r="M18" s="42">
+        <f>2*(K18*L18)/(K18+L18)</f>
+        <v>68.408759124087595</v>
+      </c>
+      <c r="N18" s="42">
+        <v>62</v>
+      </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="46"/>
-      <c r="B19" s="60"/>
-      <c r="C19" s="70" t="s">
-        <v>38</v>
-      </c>
-      <c r="D19" s="56"/>
-      <c r="E19" s="60"/>
-      <c r="F19" s="60"/>
-      <c r="G19" s="57"/>
-      <c r="H19" s="57"/>
-      <c r="I19" s="59"/>
-      <c r="J19" s="42"/>
+      <c r="B19" s="66"/>
+      <c r="C19" s="62" t="s">
+        <v>122</v>
+      </c>
+      <c r="D19" s="63" t="s">
+        <v>120</v>
+      </c>
+      <c r="E19" s="54">
+        <v>1E-3</v>
+      </c>
+      <c r="F19" s="54">
+        <v>70</v>
+      </c>
+      <c r="G19" s="54"/>
+      <c r="H19" s="54"/>
+      <c r="I19" s="56"/>
+      <c r="J19" s="42">
+        <v>69.67</v>
+      </c>
+      <c r="K19">
+        <v>69</v>
+      </c>
+      <c r="L19">
+        <v>79</v>
+      </c>
+      <c r="M19">
+        <f>2*(L19*K19)/(L19+K19)</f>
+        <v>73.662162162162161</v>
+      </c>
+      <c r="N19">
+        <v>62</v>
+      </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="46"/>
-      <c r="B20" s="72" t="s">
+      <c r="B20" s="66"/>
+      <c r="C20" s="61"/>
+      <c r="D20" s="63" t="s">
+        <v>121</v>
+      </c>
+      <c r="E20" s="54">
+        <v>1E-3</v>
+      </c>
+      <c r="F20" s="54">
+        <v>70</v>
+      </c>
+      <c r="G20" s="54"/>
+      <c r="H20" s="54"/>
+      <c r="I20" s="56"/>
+      <c r="J20" s="42">
+        <v>62</v>
+      </c>
+      <c r="K20" s="77">
+        <v>71</v>
+      </c>
+      <c r="L20" s="77">
         <v>66</v>
       </c>
-      <c r="C20" s="61" t="s">
-        <v>118</v>
-      </c>
-      <c r="D20" s="67" t="s">
-        <v>120</v>
-      </c>
-      <c r="E20" s="57"/>
-      <c r="F20" s="57"/>
-      <c r="G20" s="57"/>
-      <c r="H20" s="57"/>
-      <c r="I20" s="59"/>
-      <c r="J20" s="42"/>
+      <c r="M20">
+        <f>2*(L20*K20)/(L20+K20)</f>
+        <v>68.408759124087595</v>
+      </c>
+      <c r="N20" s="77">
+        <v>66</v>
+      </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="46"/>
-      <c r="B21" s="72"/>
-      <c r="C21" s="61"/>
-      <c r="D21" s="67" t="s">
-        <v>121</v>
-      </c>
-      <c r="E21" s="57"/>
-      <c r="F21" s="57"/>
-      <c r="G21" s="57"/>
-      <c r="H21" s="57"/>
-      <c r="I21" s="59"/>
+      <c r="B21" s="57"/>
+      <c r="C21" s="64" t="s">
+        <v>38</v>
+      </c>
+      <c r="D21" s="53"/>
+      <c r="E21" s="57" t="s">
+        <v>127</v>
+      </c>
+      <c r="F21" s="57" t="s">
+        <v>128</v>
+      </c>
+      <c r="G21" s="69" t="s">
+        <v>131</v>
+      </c>
+      <c r="H21" s="54"/>
+      <c r="I21" s="56"/>
       <c r="J21" s="42"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="46"/>
-      <c r="B22" s="72"/>
-      <c r="C22" s="61" t="s">
-        <v>119</v>
-      </c>
-      <c r="D22" s="67" t="s">
+      <c r="B22" s="66" t="s">
+        <v>66</v>
+      </c>
+      <c r="C22" s="68" t="s">
+        <v>118</v>
+      </c>
+      <c r="D22" s="63" t="s">
         <v>120</v>
       </c>
-      <c r="E22" s="57"/>
-      <c r="F22" s="57"/>
-      <c r="G22" s="57"/>
-      <c r="H22" s="57"/>
-      <c r="I22" s="59"/>
-      <c r="J22" s="42"/>
+      <c r="E22" s="54" t="s">
+        <v>132</v>
+      </c>
+      <c r="F22" s="54">
+        <v>0.01</v>
+      </c>
+      <c r="G22" s="54"/>
+      <c r="H22" s="54"/>
+      <c r="I22" s="56"/>
+      <c r="J22" s="42">
+        <v>68</v>
+      </c>
+      <c r="K22" s="42">
+        <v>62</v>
+      </c>
+      <c r="L22" s="42">
+        <v>59</v>
+      </c>
+      <c r="M22" s="42">
+        <f>2*(K22*L22)/(K22+L22)</f>
+        <v>60.462809917355372</v>
+      </c>
+      <c r="N22" s="42">
+        <v>66</v>
+      </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="46"/>
-      <c r="B23" s="72"/>
-      <c r="C23" s="61"/>
-      <c r="D23" s="67" t="s">
+      <c r="B23" s="66"/>
+      <c r="C23" s="68"/>
+      <c r="D23" s="63" t="s">
         <v>121</v>
       </c>
-      <c r="E23" s="63"/>
-      <c r="F23" s="57"/>
-      <c r="G23" s="57"/>
-      <c r="H23" s="57"/>
-      <c r="I23" s="59"/>
-      <c r="J23" s="42"/>
+      <c r="E23" s="54" t="s">
+        <v>132</v>
+      </c>
+      <c r="F23" s="54">
+        <v>0.01</v>
+      </c>
+      <c r="G23" s="54"/>
+      <c r="H23" s="54"/>
+      <c r="I23" s="56"/>
+      <c r="J23" s="42">
+        <v>67</v>
+      </c>
+      <c r="K23" s="42">
+        <v>66</v>
+      </c>
+      <c r="L23" s="42">
+        <v>71</v>
+      </c>
+      <c r="M23" s="42">
+        <f>2*(K23*L23)/(K23+L23)</f>
+        <v>68.408759124087595</v>
+      </c>
+      <c r="N23" s="42">
+        <v>62</v>
+      </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="46"/>
-      <c r="B24" s="72"/>
-      <c r="C24" s="61" t="s">
-        <v>123</v>
-      </c>
-      <c r="D24" s="67" t="s">
+      <c r="B24" s="66"/>
+      <c r="C24" s="68" t="s">
+        <v>119</v>
+      </c>
+      <c r="D24" s="63" t="s">
         <v>120</v>
       </c>
-      <c r="E24" s="60"/>
-      <c r="F24" s="57"/>
-      <c r="G24" s="57"/>
-      <c r="H24" s="57"/>
-      <c r="I24" s="59"/>
-      <c r="J24" s="42"/>
+      <c r="E24" s="54">
+        <v>0.1</v>
+      </c>
+      <c r="F24" s="54">
+        <v>0.05</v>
+      </c>
+      <c r="G24" s="54"/>
+      <c r="H24" s="54"/>
+      <c r="I24" s="56"/>
+      <c r="J24" s="42">
+        <v>69.67</v>
+      </c>
+      <c r="K24">
+        <v>69</v>
+      </c>
+      <c r="L24">
+        <v>79</v>
+      </c>
+      <c r="M24">
+        <f>2*(L24*K24)/(L24+K24)</f>
+        <v>73.662162162162161</v>
+      </c>
+      <c r="N24">
+        <v>62</v>
+      </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="46"/>
-      <c r="B25" s="72"/>
-      <c r="C25" s="61"/>
-      <c r="D25" s="67" t="s">
+      <c r="B25" s="66"/>
+      <c r="C25" s="68"/>
+      <c r="D25" s="63" t="s">
         <v>121</v>
       </c>
-      <c r="E25" s="63"/>
-      <c r="F25" s="57"/>
-      <c r="G25" s="57"/>
-      <c r="H25" s="57"/>
-      <c r="I25" s="59"/>
-      <c r="J25" s="42"/>
+      <c r="E25" s="60">
+        <v>0.1</v>
+      </c>
+      <c r="F25" s="54">
+        <v>0.05</v>
+      </c>
+      <c r="G25" s="54"/>
+      <c r="H25" s="54"/>
+      <c r="I25" s="56"/>
+      <c r="J25" s="42">
+        <v>62</v>
+      </c>
+      <c r="K25" s="77">
+        <v>71</v>
+      </c>
+      <c r="L25" s="77">
+        <v>66</v>
+      </c>
+      <c r="M25">
+        <f>2*(L25*K25)/(L25+K25)</f>
+        <v>68.408759124087595</v>
+      </c>
+      <c r="N25" s="77">
+        <v>66</v>
+      </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="46"/>
-      <c r="B26" s="72"/>
-      <c r="C26" s="65"/>
-      <c r="D26" s="58"/>
-      <c r="E26" s="63"/>
-      <c r="F26" s="57"/>
-      <c r="G26" s="57"/>
-      <c r="H26" s="57"/>
-      <c r="I26" s="59"/>
-      <c r="J26" s="42"/>
+      <c r="B26" s="66"/>
+      <c r="C26" s="68" t="s">
+        <v>123</v>
+      </c>
+      <c r="D26" s="63" t="s">
+        <v>120</v>
+      </c>
+      <c r="E26" s="57">
+        <v>0.9</v>
+      </c>
+      <c r="F26" s="54">
+        <v>0.01</v>
+      </c>
+      <c r="G26" s="54"/>
+      <c r="H26" s="54"/>
+      <c r="I26" s="56"/>
+      <c r="J26" s="42">
+        <v>89</v>
+      </c>
+      <c r="K26" s="42">
+        <v>77</v>
+      </c>
+      <c r="L26" s="42">
+        <v>74</v>
+      </c>
+      <c r="M26" s="42">
+        <f t="shared" ref="M26:M27" si="2">2*(K26*L26)/(K26+L26)</f>
+        <v>75.47019867549669</v>
+      </c>
+      <c r="N26" s="42">
+        <v>88</v>
+      </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="46"/>
-      <c r="B27" s="72" t="s">
-        <v>124</v>
-      </c>
-      <c r="C27" s="65"/>
-      <c r="D27" s="67" t="s">
-        <v>120</v>
-      </c>
-      <c r="E27" s="57"/>
-      <c r="F27" s="57"/>
-      <c r="G27" s="57"/>
-      <c r="H27" s="57"/>
-      <c r="I27" s="59"/>
-      <c r="J27" s="42"/>
+      <c r="B27" s="66"/>
+      <c r="C27" s="58"/>
+      <c r="D27" s="63" t="s">
+        <v>121</v>
+      </c>
+      <c r="E27" s="60">
+        <v>0.9</v>
+      </c>
+      <c r="F27" s="54">
+        <v>0.01</v>
+      </c>
+      <c r="G27" s="54"/>
+      <c r="H27" s="54"/>
+      <c r="I27" s="56"/>
+      <c r="J27" s="42">
+        <v>87</v>
+      </c>
+      <c r="K27" s="42">
+        <v>79</v>
+      </c>
+      <c r="L27" s="42">
+        <v>75</v>
+      </c>
+      <c r="M27" s="42">
+        <f>2*(K27*L27)/(K27+L27)</f>
+        <v>76.948051948051955</v>
+      </c>
+      <c r="N27" s="42">
+        <v>81</v>
+      </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="46"/>
-      <c r="B28" s="72"/>
-      <c r="C28" s="66"/>
-      <c r="D28" s="67" t="s">
-        <v>121</v>
-      </c>
+      <c r="B28" s="66"/>
+      <c r="C28" s="58"/>
+      <c r="D28" s="63"/>
       <c r="E28" s="60"/>
-      <c r="F28" s="60"/>
-      <c r="G28" s="57"/>
-      <c r="H28" s="57"/>
-      <c r="I28" s="59"/>
+      <c r="F28" s="54"/>
+      <c r="G28" s="54"/>
+      <c r="H28" s="54"/>
+      <c r="I28" s="56"/>
       <c r="J28" s="42"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="46"/>
-      <c r="B29" s="72"/>
+      <c r="B29" s="66"/>
       <c r="C29" s="61"/>
-      <c r="D29" s="67" t="s">
-        <v>120</v>
-      </c>
-      <c r="E29" s="57"/>
-      <c r="F29" s="57"/>
-      <c r="G29" s="57"/>
-      <c r="H29" s="57"/>
-      <c r="I29" s="59"/>
+      <c r="D29" s="55"/>
+      <c r="E29" s="57" t="s">
+        <v>125</v>
+      </c>
+      <c r="F29" s="66" t="s">
+        <v>126</v>
+      </c>
+      <c r="G29" s="54"/>
+      <c r="H29" s="54"/>
+      <c r="I29" s="56"/>
       <c r="J29" s="42"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="46"/>
-      <c r="B30" s="72"/>
-      <c r="C30" s="61"/>
-      <c r="D30" s="67" t="s">
-        <v>121</v>
-      </c>
-      <c r="E30" s="57"/>
-      <c r="F30" s="57"/>
-      <c r="G30" s="57"/>
-      <c r="H30" s="57"/>
-      <c r="I30" s="59"/>
-      <c r="J30" s="42"/>
+      <c r="B30" s="66" t="s">
+        <v>124</v>
+      </c>
+      <c r="C30" s="76" t="s">
+        <v>124</v>
+      </c>
+      <c r="D30" s="63" t="s">
+        <v>120</v>
+      </c>
+      <c r="E30" s="60">
+        <v>7</v>
+      </c>
+      <c r="F30" s="54">
+        <v>700</v>
+      </c>
+      <c r="G30" s="54"/>
+      <c r="H30" s="54"/>
+      <c r="I30" s="56"/>
+      <c r="J30" s="42">
+        <v>82</v>
+      </c>
+      <c r="K30" s="42">
+        <v>70</v>
+      </c>
+      <c r="L30" s="42">
+        <v>97</v>
+      </c>
+      <c r="M30" s="42">
+        <f t="shared" ref="M30" si="3">2*(N30*K30)/(N30+K30)</f>
+        <v>74.228187919463082</v>
+      </c>
+      <c r="N30" s="42">
+        <v>79</v>
+      </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="46"/>
-      <c r="B31" s="72"/>
-      <c r="C31" s="61"/>
-      <c r="D31" s="67" t="s">
+      <c r="B31" s="66"/>
+      <c r="C31" s="62"/>
+      <c r="D31" s="63" t="s">
+        <v>121</v>
+      </c>
+      <c r="E31" s="57">
+        <v>7</v>
+      </c>
+      <c r="F31" s="57">
+        <v>700</v>
+      </c>
+      <c r="G31" s="54"/>
+      <c r="H31" s="54"/>
+      <c r="I31" s="56"/>
+      <c r="J31" s="42">
+        <v>80</v>
+      </c>
+      <c r="K31" s="42">
+        <v>79</v>
+      </c>
+      <c r="L31" s="42">
+        <v>79</v>
+      </c>
+      <c r="M31" s="42">
+        <f t="shared" ref="M31" si="4">2*(N31*K31)/(N31+K31)</f>
+        <v>79.496855345911953</v>
+      </c>
+      <c r="N31" s="42">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A32" s="46"/>
+      <c r="B32" s="66"/>
+      <c r="C32" s="58"/>
+      <c r="D32" s="63" t="s">
         <v>120</v>
       </c>
-      <c r="E31" s="57"/>
-      <c r="F31" s="57"/>
-      <c r="G31" s="57"/>
-      <c r="H31" s="57"/>
-      <c r="I31" s="59"/>
-      <c r="J31" s="42"/>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B32" s="73"/>
-      <c r="D32" s="67" t="s">
+      <c r="E32" s="60">
+        <v>11</v>
+      </c>
+      <c r="F32" s="54">
+        <v>1000</v>
+      </c>
+      <c r="G32" s="54"/>
+      <c r="H32" s="54"/>
+      <c r="I32" s="56"/>
+      <c r="J32" s="42">
+        <v>88</v>
+      </c>
+      <c r="K32" s="42">
+        <v>71</v>
+      </c>
+      <c r="L32" s="42">
+        <v>88</v>
+      </c>
+      <c r="M32" s="42">
+        <f t="shared" ref="M32:M35" si="5">2*(N32*K32)/(N32+K32)</f>
+        <v>76.104575163398692</v>
+      </c>
+      <c r="N32" s="42">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A33" s="46"/>
+      <c r="B33" s="66"/>
+      <c r="C33" s="58"/>
+      <c r="D33" s="63" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B33" s="73"/>
-    </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B34" s="73" t="s">
+      <c r="E33" s="57">
+        <v>11</v>
+      </c>
+      <c r="F33" s="54">
+        <v>1000</v>
+      </c>
+      <c r="G33" s="54"/>
+      <c r="H33" s="54"/>
+      <c r="I33" s="56"/>
+      <c r="J33" s="42">
+        <v>87</v>
+      </c>
+      <c r="K33" s="42">
+        <v>72</v>
+      </c>
+      <c r="L33" s="42">
+        <v>90</v>
+      </c>
+      <c r="M33" s="42">
+        <f t="shared" si="5"/>
+        <v>75.337748344370866</v>
+      </c>
+      <c r="N33" s="42">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A34" s="46"/>
+      <c r="B34" s="66"/>
+      <c r="C34" s="58"/>
+      <c r="D34" s="63" t="s">
+        <v>120</v>
+      </c>
+      <c r="E34" s="60">
+        <v>11</v>
+      </c>
+      <c r="F34" s="54">
+        <v>800</v>
+      </c>
+      <c r="G34" s="54"/>
+      <c r="H34" s="54"/>
+      <c r="I34" s="56"/>
+      <c r="J34" s="42">
+        <v>87</v>
+      </c>
+      <c r="K34" s="42">
+        <v>79</v>
+      </c>
+      <c r="L34" s="42">
+        <v>91</v>
+      </c>
+      <c r="M34" s="42">
+        <f t="shared" si="5"/>
+        <v>83.257485029940113</v>
+      </c>
+      <c r="N34" s="42">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B35" s="67"/>
+      <c r="D35" s="63" t="s">
+        <v>121</v>
+      </c>
+      <c r="E35" s="57">
+        <v>11</v>
+      </c>
+      <c r="F35" s="54">
+        <v>800</v>
+      </c>
+      <c r="J35" s="42">
+        <v>89</v>
+      </c>
+      <c r="K35" s="42">
+        <v>80</v>
+      </c>
+      <c r="L35" s="42">
+        <v>91</v>
+      </c>
+      <c r="M35" s="42">
+        <f t="shared" si="5"/>
+        <v>80.987654320987659</v>
+      </c>
+      <c r="N35" s="42">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B36" s="67"/>
+      <c r="E36" s="67" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B37" s="67" t="s">
         <v>68</v>
       </c>
-      <c r="C34" t="s">
-        <v>125</v>
-      </c>
-      <c r="D34" s="67" t="s">
+      <c r="C37" s="67" t="s">
+        <v>133</v>
+      </c>
+      <c r="D37" s="63" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B35" s="73"/>
-      <c r="C35" t="s">
-        <v>125</v>
-      </c>
-      <c r="D35" s="67" t="s">
+      <c r="E37">
+        <v>10</v>
+      </c>
+      <c r="J37" s="42">
+        <v>69.67</v>
+      </c>
+      <c r="K37">
+        <v>69</v>
+      </c>
+      <c r="L37">
+        <v>79</v>
+      </c>
+      <c r="M37">
+        <f>2*(L37*K37)/(L37+K37)</f>
+        <v>73.662162162162161</v>
+      </c>
+      <c r="N37">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B38" s="67"/>
+      <c r="C38" s="67" t="s">
+        <v>134</v>
+      </c>
+      <c r="D38" s="63" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B36" s="73"/>
-      <c r="D36" s="67" t="s">
+      <c r="E38">
+        <v>10</v>
+      </c>
+      <c r="F38" t="s">
+        <v>135</v>
+      </c>
+      <c r="J38" s="42">
+        <v>62</v>
+      </c>
+      <c r="K38" s="77">
+        <v>71</v>
+      </c>
+      <c r="L38" s="77">
+        <v>66</v>
+      </c>
+      <c r="M38">
+        <f>2*(L38*K38)/(L38+K38)</f>
+        <v>68.408759124087595</v>
+      </c>
+      <c r="N38" s="77">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B39" s="67"/>
+      <c r="D39" s="63" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B37" s="73"/>
-      <c r="D37" s="67" t="s">
+      <c r="E39">
+        <v>15</v>
+      </c>
+      <c r="J39" s="42">
+        <v>89</v>
+      </c>
+      <c r="K39" s="42">
+        <v>77</v>
+      </c>
+      <c r="L39" s="42">
+        <v>74</v>
+      </c>
+      <c r="M39" s="42">
+        <f t="shared" ref="M39:M40" si="6">2*(K39*L39)/(K39+L39)</f>
+        <v>75.47019867549669</v>
+      </c>
+      <c r="N39" s="42">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B40" s="67"/>
+      <c r="D40" s="63" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B38" s="73"/>
+      <c r="E40">
+        <v>15</v>
+      </c>
+      <c r="J40" s="42">
+        <v>87</v>
+      </c>
+      <c r="K40" s="42">
+        <v>79</v>
+      </c>
+      <c r="L40" s="42">
+        <v>75</v>
+      </c>
+      <c r="M40" s="42">
+        <f>2*(K40*L40)/(K40+L40)</f>
+        <v>76.948051948051955</v>
+      </c>
+      <c r="N40" s="42">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B41" s="67"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Checklist-CoverType.xlsx
+++ b/Checklist-CoverType.xlsx
@@ -9,14 +9,21 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8340" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8340" firstSheet="5" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Data Charatcerization" sheetId="1" r:id="rId1"/>
     <sheet name="Data Preprocessing" sheetId="2" r:id="rId2"/>
     <sheet name="Bench MArk Models" sheetId="3" r:id="rId3"/>
-    <sheet name="Hyper Tuning" sheetId="4" r:id="rId4"/>
-    <sheet name="Consolidation" sheetId="5" r:id="rId5"/>
+    <sheet name="Models -Without MCA" sheetId="4" r:id="rId4"/>
+    <sheet name="Models -With MCA" sheetId="5" r:id="rId5"/>
+    <sheet name="Logistic Regression" sheetId="7" r:id="rId6"/>
+    <sheet name="KNN" sheetId="8" r:id="rId7"/>
+    <sheet name="SVM" sheetId="9" r:id="rId8"/>
+    <sheet name="Decision Trees" sheetId="10" r:id="rId9"/>
+    <sheet name="Random Forest" sheetId="11" r:id="rId10"/>
+    <sheet name="Naive Bayes" sheetId="12" r:id="rId11"/>
+    <sheet name="Boosting" sheetId="15" r:id="rId12"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -63,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="181">
   <si>
     <t>Please fill the following details</t>
   </si>
@@ -471,13 +478,148 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Logistic Regression</t>
+  </si>
+  <si>
+    <t>Cross Validation- K</t>
+  </si>
+  <si>
+    <t>Family</t>
+  </si>
+  <si>
+    <t>Type.Multinomial</t>
+  </si>
+  <si>
+    <t>Nlambda</t>
+  </si>
+  <si>
+    <t>Multinomial</t>
+  </si>
+  <si>
+    <t>Grouped</t>
+  </si>
+  <si>
+    <t>F1Score</t>
+  </si>
+  <si>
+    <t>Alpha</t>
+  </si>
+  <si>
+    <t>Lambda</t>
+  </si>
+  <si>
+    <t>Type.logistic</t>
+  </si>
+  <si>
+    <t>Hessian</t>
+  </si>
+  <si>
+    <t>modified.newton</t>
+  </si>
+  <si>
+    <t>Support Vector Machines</t>
+  </si>
+  <si>
+    <t>Kernel</t>
+  </si>
+  <si>
+    <t>CostFunction</t>
+  </si>
+  <si>
+    <t>Class.Weights</t>
+  </si>
+  <si>
+    <t>Radial</t>
+  </si>
+  <si>
+    <t>Tanh</t>
+  </si>
+  <si>
+    <t>Classification Type</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>Complexity Parameter</t>
+  </si>
+  <si>
+    <t>Min Splits</t>
+  </si>
+  <si>
+    <t>Min Nodes</t>
+  </si>
+  <si>
+    <t>Rpart</t>
+  </si>
+  <si>
+    <t>Min Bucket</t>
+  </si>
+  <si>
+    <t>Split</t>
+  </si>
+  <si>
+    <t>Gini</t>
+  </si>
+  <si>
+    <t>Prior Weights</t>
+  </si>
+  <si>
+    <t>Equal</t>
+  </si>
+  <si>
+    <t>1:1:2:2:2:1:1</t>
+  </si>
+  <si>
+    <t>Loss Matrix</t>
+  </si>
+  <si>
+    <t>1.5:1.5:2:2:2:1:1</t>
+  </si>
+  <si>
+    <t>1.7:1.7:2:2:2:1:1</t>
+  </si>
+  <si>
+    <t>PCA/MCA</t>
+  </si>
+  <si>
+    <t>PCA</t>
+  </si>
+  <si>
+    <t>SMOTE</t>
+  </si>
+  <si>
+    <t>Mtry</t>
+  </si>
+  <si>
+    <t>Random Forest</t>
+  </si>
+  <si>
+    <t>Ntrees</t>
+  </si>
+  <si>
+    <t>Sampsize</t>
+  </si>
+  <si>
+    <t>NodeSize</t>
+  </si>
+  <si>
+    <t>MaxNodes</t>
+  </si>
+  <si>
+    <t>Laplace Smoothing</t>
+  </si>
+  <si>
+    <t>Naïve Bayes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -549,8 +691,64 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Lucida Console"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Lucida Console"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -602,6 +800,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -699,7 +903,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -782,6 +986,19 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -790,10 +1007,30 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1643,6 +1880,767 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:V22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.7109375" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" customWidth="1"/>
+    <col min="5" max="5" width="16" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" customWidth="1"/>
+    <col min="7" max="8" width="14" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A1" s="96" t="s">
+        <v>174</v>
+      </c>
+      <c r="B1" s="98"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="76" t="s">
+        <v>57</v>
+      </c>
+      <c r="H1" s="76" t="s">
+        <v>61</v>
+      </c>
+      <c r="I1" s="76" t="s">
+        <v>58</v>
+      </c>
+      <c r="J1" s="76" t="s">
+        <v>143</v>
+      </c>
+      <c r="K1" s="76" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="63"/>
+      <c r="B2" s="79" t="s">
+        <v>173</v>
+      </c>
+      <c r="C2" s="79" t="s">
+        <v>177</v>
+      </c>
+      <c r="D2" s="79" t="s">
+        <v>178</v>
+      </c>
+      <c r="E2" s="97" t="s">
+        <v>175</v>
+      </c>
+      <c r="F2" s="79" t="s">
+        <v>176</v>
+      </c>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="42"/>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A3" s="63" t="s">
+        <v>120</v>
+      </c>
+      <c r="B3" s="63">
+        <v>7</v>
+      </c>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63">
+        <v>700</v>
+      </c>
+      <c r="F3" s="63"/>
+      <c r="G3" s="63">
+        <v>82</v>
+      </c>
+      <c r="H3" s="63">
+        <v>70</v>
+      </c>
+      <c r="I3" s="63">
+        <v>97</v>
+      </c>
+      <c r="J3" s="63">
+        <f t="shared" ref="J3:J4" si="0">2*(K3*H3)/(K3+H3)</f>
+        <v>74.228187919463082</v>
+      </c>
+      <c r="K3" s="63">
+        <v>79</v>
+      </c>
+      <c r="M3" s="60"/>
+      <c r="N3" s="54"/>
+      <c r="O3" s="54"/>
+      <c r="P3" s="54"/>
+      <c r="Q3" s="56"/>
+      <c r="R3" s="42"/>
+      <c r="S3" s="42"/>
+      <c r="T3" s="42"/>
+      <c r="U3" s="42"/>
+      <c r="V3" s="42"/>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A4" s="53" t="s">
+        <v>121</v>
+      </c>
+      <c r="B4" s="63">
+        <v>7</v>
+      </c>
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="63">
+        <v>700</v>
+      </c>
+      <c r="F4" s="63"/>
+      <c r="G4" s="63">
+        <v>80</v>
+      </c>
+      <c r="H4" s="63">
+        <v>79</v>
+      </c>
+      <c r="I4" s="63">
+        <v>79</v>
+      </c>
+      <c r="J4" s="63">
+        <f t="shared" si="0"/>
+        <v>79.496855345911953</v>
+      </c>
+      <c r="K4" s="63">
+        <v>80</v>
+      </c>
+      <c r="M4" s="57"/>
+      <c r="N4" s="57"/>
+      <c r="O4" s="54"/>
+      <c r="P4" s="54"/>
+      <c r="Q4" s="56"/>
+      <c r="R4" s="42"/>
+      <c r="S4" s="42"/>
+      <c r="T4" s="42"/>
+      <c r="U4" s="42"/>
+      <c r="V4" s="42"/>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A5" s="67"/>
+      <c r="B5" s="63"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="63"/>
+      <c r="F5" s="63"/>
+      <c r="G5" s="63"/>
+      <c r="H5" s="63"/>
+      <c r="I5" s="63"/>
+      <c r="J5" s="63"/>
+      <c r="K5" s="63"/>
+      <c r="M5" s="60"/>
+      <c r="N5" s="54"/>
+      <c r="O5" s="54"/>
+      <c r="P5" s="54"/>
+      <c r="Q5" s="56"/>
+      <c r="R5" s="42"/>
+      <c r="S5" s="42"/>
+      <c r="T5" s="42"/>
+      <c r="U5" s="42"/>
+      <c r="V5" s="42"/>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A6" s="63" t="s">
+        <v>120</v>
+      </c>
+      <c r="B6" s="63">
+        <v>11</v>
+      </c>
+      <c r="C6" s="63"/>
+      <c r="D6" s="63"/>
+      <c r="E6" s="63">
+        <v>1000</v>
+      </c>
+      <c r="F6" s="63"/>
+      <c r="G6" s="63">
+        <v>88</v>
+      </c>
+      <c r="H6" s="63">
+        <v>71</v>
+      </c>
+      <c r="I6" s="63">
+        <v>88</v>
+      </c>
+      <c r="J6" s="63">
+        <f t="shared" ref="J6:J7" si="1">2*(K6*H6)/(K6+H6)</f>
+        <v>76.104575163398692</v>
+      </c>
+      <c r="K6" s="63">
+        <v>82</v>
+      </c>
+      <c r="M6" s="57"/>
+      <c r="N6" s="54"/>
+      <c r="O6" s="54"/>
+      <c r="P6" s="54"/>
+      <c r="Q6" s="56"/>
+      <c r="R6" s="42"/>
+      <c r="S6" s="42"/>
+      <c r="T6" s="42"/>
+      <c r="U6" s="42"/>
+      <c r="V6" s="42"/>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A7" s="63" t="s">
+        <v>121</v>
+      </c>
+      <c r="B7" s="63">
+        <v>11</v>
+      </c>
+      <c r="C7" s="63"/>
+      <c r="D7" s="63"/>
+      <c r="E7" s="63">
+        <v>1000</v>
+      </c>
+      <c r="F7" s="63"/>
+      <c r="G7" s="63">
+        <v>87</v>
+      </c>
+      <c r="H7" s="63">
+        <v>72</v>
+      </c>
+      <c r="I7" s="63">
+        <v>90</v>
+      </c>
+      <c r="J7" s="63">
+        <f t="shared" si="1"/>
+        <v>75.337748344370866</v>
+      </c>
+      <c r="K7" s="63">
+        <v>79</v>
+      </c>
+      <c r="M7" s="60"/>
+      <c r="N7" s="54"/>
+      <c r="O7" s="54"/>
+      <c r="P7" s="54"/>
+      <c r="Q7" s="56"/>
+      <c r="R7" s="42"/>
+      <c r="S7" s="42"/>
+      <c r="T7" s="42"/>
+      <c r="U7" s="42"/>
+      <c r="V7" s="42"/>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A8" s="67"/>
+      <c r="B8" s="63"/>
+      <c r="C8" s="63"/>
+      <c r="D8" s="63"/>
+      <c r="E8" s="63"/>
+      <c r="F8" s="63"/>
+      <c r="G8" s="63"/>
+      <c r="H8" s="63"/>
+      <c r="I8" s="63"/>
+      <c r="J8" s="63"/>
+      <c r="K8" s="63"/>
+      <c r="M8" s="57"/>
+      <c r="N8" s="54"/>
+      <c r="R8" s="42"/>
+      <c r="S8" s="42"/>
+      <c r="T8" s="42"/>
+      <c r="U8" s="42"/>
+      <c r="V8" s="42"/>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A9" s="63" t="s">
+        <v>120</v>
+      </c>
+      <c r="B9" s="63">
+        <v>11</v>
+      </c>
+      <c r="C9" s="63"/>
+      <c r="D9" s="63"/>
+      <c r="E9" s="63">
+        <v>800</v>
+      </c>
+      <c r="F9" s="63"/>
+      <c r="G9" s="63">
+        <v>87</v>
+      </c>
+      <c r="H9" s="63">
+        <v>79</v>
+      </c>
+      <c r="I9" s="63">
+        <v>91</v>
+      </c>
+      <c r="J9" s="63">
+        <f t="shared" ref="J9:J10" si="2">2*(K9*H9)/(K9+H9)</f>
+        <v>83.257485029940113</v>
+      </c>
+      <c r="K9" s="63">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A10" s="63" t="s">
+        <v>121</v>
+      </c>
+      <c r="B10" s="63">
+        <v>11</v>
+      </c>
+      <c r="C10" s="63"/>
+      <c r="D10" s="63"/>
+      <c r="E10" s="63">
+        <v>800</v>
+      </c>
+      <c r="F10" s="63"/>
+      <c r="G10" s="63">
+        <v>85</v>
+      </c>
+      <c r="H10" s="63">
+        <v>80</v>
+      </c>
+      <c r="I10" s="63">
+        <v>91</v>
+      </c>
+      <c r="J10" s="63">
+        <f t="shared" si="2"/>
+        <v>80.987654320987659</v>
+      </c>
+      <c r="K10" s="63">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A11" s="67"/>
+      <c r="B11" s="63"/>
+      <c r="C11" s="63"/>
+      <c r="D11" s="63"/>
+      <c r="E11" s="63"/>
+      <c r="F11" s="63"/>
+      <c r="G11" s="63"/>
+      <c r="H11" s="63"/>
+      <c r="I11" s="63"/>
+      <c r="J11" s="63"/>
+      <c r="K11" s="63"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A12" s="63" t="s">
+        <v>120</v>
+      </c>
+      <c r="B12" s="63">
+        <v>5</v>
+      </c>
+      <c r="C12" s="63"/>
+      <c r="D12" s="63"/>
+      <c r="E12" s="63">
+        <v>500</v>
+      </c>
+      <c r="F12" s="63"/>
+      <c r="G12" s="63">
+        <v>59</v>
+      </c>
+      <c r="H12" s="63">
+        <v>68</v>
+      </c>
+      <c r="I12" s="63">
+        <v>79</v>
+      </c>
+      <c r="J12" s="63">
+        <f>2*(H12*I12)/(H12+I12)</f>
+        <v>73.088435374149654</v>
+      </c>
+      <c r="K12" s="63">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A13" s="63" t="s">
+        <v>121</v>
+      </c>
+      <c r="B13" s="63">
+        <v>5</v>
+      </c>
+      <c r="C13" s="63"/>
+      <c r="D13" s="63"/>
+      <c r="E13" s="63">
+        <v>500</v>
+      </c>
+      <c r="F13" s="63"/>
+      <c r="G13" s="63">
+        <v>52</v>
+      </c>
+      <c r="H13" s="63">
+        <v>65</v>
+      </c>
+      <c r="I13" s="63">
+        <v>69</v>
+      </c>
+      <c r="J13" s="63">
+        <f>2*(H13*I13)/(H13+I13)</f>
+        <v>66.940298507462686</v>
+      </c>
+      <c r="K13" s="63">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A14" s="67"/>
+      <c r="B14" s="63"/>
+      <c r="C14" s="63"/>
+      <c r="D14" s="63"/>
+      <c r="E14" s="63"/>
+      <c r="F14" s="63"/>
+      <c r="G14" s="63"/>
+      <c r="H14" s="63"/>
+      <c r="I14" s="63"/>
+      <c r="J14" s="63"/>
+      <c r="K14" s="63"/>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A15" s="63" t="s">
+        <v>120</v>
+      </c>
+      <c r="B15" s="63">
+        <v>3</v>
+      </c>
+      <c r="C15" s="63"/>
+      <c r="D15" s="63"/>
+      <c r="E15" s="63">
+        <v>500</v>
+      </c>
+      <c r="F15" s="63"/>
+      <c r="G15" s="63">
+        <v>68</v>
+      </c>
+      <c r="H15" s="63">
+        <v>55</v>
+      </c>
+      <c r="I15" s="63">
+        <v>70</v>
+      </c>
+      <c r="J15" s="63">
+        <f>2*(H15*I15)/(H15+I15)</f>
+        <v>61.6</v>
+      </c>
+      <c r="K15" s="63">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A16" s="63" t="s">
+        <v>121</v>
+      </c>
+      <c r="B16" s="63">
+        <v>3</v>
+      </c>
+      <c r="C16" s="63"/>
+      <c r="D16" s="63"/>
+      <c r="E16" s="63">
+        <v>500</v>
+      </c>
+      <c r="F16" s="63"/>
+      <c r="G16" s="63">
+        <v>63</v>
+      </c>
+      <c r="H16" s="63">
+        <v>52</v>
+      </c>
+      <c r="I16" s="63">
+        <v>70</v>
+      </c>
+      <c r="J16" s="63">
+        <f>2*(H16*I16)/(H16+I16)</f>
+        <v>59.672131147540981</v>
+      </c>
+      <c r="K16" s="63">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="67"/>
+      <c r="B17" s="63"/>
+      <c r="C17" s="63"/>
+      <c r="D17" s="63"/>
+      <c r="E17" s="63"/>
+      <c r="F17" s="63"/>
+      <c r="G17" s="63"/>
+      <c r="H17" s="63"/>
+      <c r="I17" s="63"/>
+      <c r="J17" s="63"/>
+      <c r="K17" s="63"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="63" t="s">
+        <v>120</v>
+      </c>
+      <c r="B18" s="63"/>
+      <c r="C18" s="63"/>
+      <c r="D18" s="63"/>
+      <c r="E18" s="63"/>
+      <c r="F18" s="63"/>
+      <c r="G18" s="63">
+        <v>53</v>
+      </c>
+      <c r="H18" s="63">
+        <v>50</v>
+      </c>
+      <c r="I18" s="63">
+        <v>51</v>
+      </c>
+      <c r="J18" s="63">
+        <f>2*(H18*I18)/(H18+I18)</f>
+        <v>50.495049504950494</v>
+      </c>
+      <c r="K18" s="63">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="63" t="s">
+        <v>121</v>
+      </c>
+      <c r="B19" s="63"/>
+      <c r="C19" s="63"/>
+      <c r="D19" s="63"/>
+      <c r="E19" s="63"/>
+      <c r="F19" s="63"/>
+      <c r="G19" s="63">
+        <v>53</v>
+      </c>
+      <c r="H19" s="63">
+        <v>50</v>
+      </c>
+      <c r="I19" s="63">
+        <v>51</v>
+      </c>
+      <c r="J19" s="63">
+        <f>2*(H19*I19)/(H19+I19)</f>
+        <v>50.495049504950494</v>
+      </c>
+      <c r="K19" s="63">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="67"/>
+      <c r="B20" s="63"/>
+      <c r="C20" s="63"/>
+      <c r="D20" s="63"/>
+      <c r="E20" s="63"/>
+      <c r="F20" s="63"/>
+      <c r="G20" s="63"/>
+      <c r="H20" s="63"/>
+      <c r="I20" s="63"/>
+      <c r="J20" s="63"/>
+      <c r="K20" s="63"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="63" t="s">
+        <v>120</v>
+      </c>
+      <c r="B21" s="63"/>
+      <c r="C21" s="63"/>
+      <c r="D21" s="63"/>
+      <c r="E21" s="63"/>
+      <c r="F21" s="63"/>
+      <c r="G21" s="63">
+        <v>53</v>
+      </c>
+      <c r="H21" s="63">
+        <v>50</v>
+      </c>
+      <c r="I21" s="63">
+        <v>51</v>
+      </c>
+      <c r="J21" s="63">
+        <f>2*(H21*I21)/(H21+I21)</f>
+        <v>50.495049504950494</v>
+      </c>
+      <c r="K21" s="63">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="63" t="s">
+        <v>121</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:H9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.28515625" customWidth="1"/>
+    <col min="3" max="3" width="20.5703125" customWidth="1"/>
+    <col min="4" max="4" width="22.5703125" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="19" customWidth="1"/>
+    <col min="7" max="7" width="21.85546875" customWidth="1"/>
+    <col min="8" max="8" width="22.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A3" s="75" t="s">
+        <v>180</v>
+      </c>
+      <c r="B3" s="54"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="76" t="s">
+        <v>57</v>
+      </c>
+      <c r="E3" s="76" t="s">
+        <v>61</v>
+      </c>
+      <c r="F3" s="76" t="s">
+        <v>58</v>
+      </c>
+      <c r="G3" s="76" t="s">
+        <v>143</v>
+      </c>
+      <c r="H3" s="76" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B4" s="63"/>
+      <c r="C4" s="79" t="s">
+        <v>179</v>
+      </c>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="42"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B5" s="63" t="s">
+        <v>120</v>
+      </c>
+      <c r="C5" s="63">
+        <v>3</v>
+      </c>
+      <c r="D5" s="63">
+        <v>72.239999999999995</v>
+      </c>
+      <c r="E5" s="63">
+        <v>63</v>
+      </c>
+      <c r="F5" s="63">
+        <v>49</v>
+      </c>
+      <c r="G5" s="63">
+        <f>2*(E5*F5)/(E5+F5)</f>
+        <v>55.125</v>
+      </c>
+      <c r="H5" s="63">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B6" s="63" t="s">
+        <v>121</v>
+      </c>
+      <c r="C6" s="63">
+        <v>3</v>
+      </c>
+      <c r="D6" s="63">
+        <v>70.12</v>
+      </c>
+      <c r="E6" s="63">
+        <v>57</v>
+      </c>
+      <c r="F6" s="63">
+        <v>46</v>
+      </c>
+      <c r="G6" s="63">
+        <f>2*(E6*F6)/(E6+F6)</f>
+        <v>50.912621359223301</v>
+      </c>
+      <c r="H6" s="63">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G7" s="42"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B8" s="63" t="s">
+        <v>120</v>
+      </c>
+      <c r="C8" s="63">
+        <v>7</v>
+      </c>
+      <c r="D8" s="63">
+        <v>73.150000000000006</v>
+      </c>
+      <c r="E8" s="63">
+        <v>67</v>
+      </c>
+      <c r="F8" s="63">
+        <v>48</v>
+      </c>
+      <c r="G8" s="63">
+        <f>2*(E8*F8)/(E8+F8)</f>
+        <v>55.930434782608693</v>
+      </c>
+      <c r="H8" s="63">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="63" t="s">
+        <v>121</v>
+      </c>
+      <c r="C9" s="63">
+        <v>7</v>
+      </c>
+      <c r="D9" s="63">
+        <v>71.099999999999994</v>
+      </c>
+      <c r="E9" s="63">
+        <v>63</v>
+      </c>
+      <c r="F9" s="63">
+        <v>45</v>
+      </c>
+      <c r="G9" s="63">
+        <f>2*(E9*F9)/(E9+F9)</f>
+        <v>52.5</v>
+      </c>
+      <c r="H9" s="63">
+        <v>90</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D45"/>
@@ -1989,7 +2987,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:G7"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2178,8 +3176,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C20" workbookViewId="0">
-      <selection activeCell="N35" sqref="N35"/>
+    <sheetView topLeftCell="C17" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30:N35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2214,13 +3212,13 @@
       <c r="B2" s="47" t="s">
         <v>70</v>
       </c>
-      <c r="C2" s="70"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="72"/>
-      <c r="I2" s="73"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
+      <c r="G2" s="83"/>
+      <c r="H2" s="83"/>
+      <c r="I2" s="84"/>
       <c r="J2" s="45" t="s">
         <v>57</v>
       </c>
@@ -2255,7 +3253,7 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="46"/>
-      <c r="C4" s="75" t="s">
+      <c r="C4" s="71" t="s">
         <v>115</v>
       </c>
       <c r="D4" s="63"/>
@@ -2361,7 +3359,7 @@
         <v>60</v>
       </c>
       <c r="M7" s="42">
-        <f t="shared" ref="M5:M18" si="1">2*(K7*L7)/(K7+L7)</f>
+        <f t="shared" ref="M7:M13" si="1">2*(K7*L7)/(K7+L7)</f>
         <v>62.4</v>
       </c>
       <c r="N7" s="42">
@@ -2374,7 +3372,7 @@
       <c r="D8" s="63" t="s">
         <v>121</v>
       </c>
-      <c r="E8" s="74">
+      <c r="E8" s="70">
         <v>5</v>
       </c>
       <c r="F8" s="54"/>
@@ -2729,17 +3727,17 @@
       <c r="J20" s="42">
         <v>62</v>
       </c>
-      <c r="K20" s="77">
+      <c r="K20" s="73">
         <v>71</v>
       </c>
-      <c r="L20" s="77">
+      <c r="L20" s="73">
         <v>66</v>
       </c>
       <c r="M20">
         <f>2*(L20*K20)/(L20+K20)</f>
         <v>68.408759124087595</v>
       </c>
-      <c r="N20" s="77">
+      <c r="N20" s="73">
         <v>66</v>
       </c>
     </row>
@@ -2887,17 +3885,17 @@
       <c r="J25" s="42">
         <v>62</v>
       </c>
-      <c r="K25" s="77">
+      <c r="K25" s="73">
         <v>71</v>
       </c>
-      <c r="L25" s="77">
+      <c r="L25" s="73">
         <v>66</v>
       </c>
       <c r="M25">
         <f>2*(L25*K25)/(L25+K25)</f>
         <v>68.408759124087595</v>
       </c>
-      <c r="N25" s="77">
+      <c r="N25" s="73">
         <v>66</v>
       </c>
     </row>
@@ -2929,7 +3927,7 @@
         <v>74</v>
       </c>
       <c r="M26" s="42">
-        <f t="shared" ref="M26:M27" si="2">2*(K26*L26)/(K26+L26)</f>
+        <f t="shared" ref="M26" si="2">2*(K26*L26)/(K26+L26)</f>
         <v>75.47019867549669</v>
       </c>
       <c r="N26" s="42">
@@ -3002,7 +4000,7 @@
       <c r="B30" s="66" t="s">
         <v>124</v>
       </c>
-      <c r="C30" s="76" t="s">
+      <c r="C30" s="72" t="s">
         <v>124</v>
       </c>
       <c r="D30" s="63" t="s">
@@ -3247,17 +4245,17 @@
       <c r="J38" s="42">
         <v>62</v>
       </c>
-      <c r="K38" s="77">
+      <c r="K38" s="73">
         <v>71</v>
       </c>
-      <c r="L38" s="77">
+      <c r="L38" s="73">
         <v>66</v>
       </c>
       <c r="M38">
         <f>2*(L38*K38)/(L38+K38)</f>
         <v>68.408759124087595</v>
       </c>
-      <c r="N38" s="77">
+      <c r="N38" s="73">
         <v>66</v>
       </c>
     </row>
@@ -3279,7 +4277,7 @@
         <v>74</v>
       </c>
       <c r="M39" s="42">
-        <f t="shared" ref="M39:M40" si="6">2*(K39*L39)/(K39+L39)</f>
+        <f t="shared" ref="M39" si="6">2*(K39*L39)/(K39+L39)</f>
         <v>75.47019867549669</v>
       </c>
       <c r="N39" s="42">
@@ -3410,10 +4408,3754 @@
         <v>85</v>
       </c>
     </row>
-    <row r="17" spans="1:1" ht="281.25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A17" s="50" t="s">
         <v>86</v>
       </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:O40"/>
+  <sheetViews>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="J26" sqref="J26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.7109375" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" customWidth="1"/>
+    <col min="3" max="3" width="17.5703125" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" customWidth="1"/>
+    <col min="5" max="5" width="19.140625" customWidth="1"/>
+    <col min="7" max="9" width="15.7109375" customWidth="1"/>
+    <col min="10" max="10" width="13.5703125" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" customWidth="1"/>
+    <col min="12" max="12" width="15.42578125" customWidth="1"/>
+    <col min="13" max="13" width="13.85546875" customWidth="1"/>
+    <col min="14" max="14" width="22.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="55"/>
+      <c r="B2" s="55"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+    </row>
+    <row r="3" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A3" s="75" t="s">
+        <v>136</v>
+      </c>
+      <c r="B3" s="54"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="76" t="s">
+        <v>57</v>
+      </c>
+      <c r="K3" s="76" t="s">
+        <v>61</v>
+      </c>
+      <c r="L3" s="76" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" s="76" t="s">
+        <v>143</v>
+      </c>
+      <c r="N3" s="76" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B4" s="63"/>
+      <c r="C4" s="79" t="s">
+        <v>137</v>
+      </c>
+      <c r="D4" s="79" t="s">
+        <v>138</v>
+      </c>
+      <c r="E4" s="79" t="s">
+        <v>139</v>
+      </c>
+      <c r="F4" s="79" t="s">
+        <v>140</v>
+      </c>
+      <c r="G4" s="80" t="s">
+        <v>145</v>
+      </c>
+      <c r="H4" s="79" t="s">
+        <v>144</v>
+      </c>
+      <c r="I4" s="79" t="s">
+        <v>146</v>
+      </c>
+      <c r="J4" s="42"/>
+      <c r="K4" s="42"/>
+      <c r="L4" s="42"/>
+      <c r="M4" s="42"/>
+      <c r="N4" s="42"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B5" s="63" t="s">
+        <v>120</v>
+      </c>
+      <c r="C5" s="55">
+        <v>5</v>
+      </c>
+      <c r="D5" s="63" t="s">
+        <v>141</v>
+      </c>
+      <c r="E5" s="63" t="s">
+        <v>142</v>
+      </c>
+      <c r="F5" s="63">
+        <v>50</v>
+      </c>
+      <c r="G5" s="63">
+        <v>4.8374289999999999E-3</v>
+      </c>
+      <c r="H5" s="63">
+        <v>1</v>
+      </c>
+      <c r="I5" s="63" t="s">
+        <v>147</v>
+      </c>
+      <c r="J5" s="63">
+        <v>72.239999999999995</v>
+      </c>
+      <c r="K5" s="63">
+        <v>63</v>
+      </c>
+      <c r="L5" s="63">
+        <v>49</v>
+      </c>
+      <c r="M5" s="63">
+        <f>2*(K5*L5)/(K5+L5)</f>
+        <v>55.125</v>
+      </c>
+      <c r="N5" s="63">
+        <v>90</v>
+      </c>
+      <c r="O5" s="63"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B6" s="63" t="s">
+        <v>121</v>
+      </c>
+      <c r="C6" s="63">
+        <v>0</v>
+      </c>
+      <c r="D6" s="63" t="s">
+        <v>141</v>
+      </c>
+      <c r="E6" s="63" t="s">
+        <v>142</v>
+      </c>
+      <c r="F6" s="63">
+        <v>50</v>
+      </c>
+      <c r="G6" s="63">
+        <v>4.8374289999999999E-3</v>
+      </c>
+      <c r="H6" s="63">
+        <v>1</v>
+      </c>
+      <c r="I6" s="63" t="s">
+        <v>147</v>
+      </c>
+      <c r="J6" s="63">
+        <v>70.12</v>
+      </c>
+      <c r="K6" s="63">
+        <v>57</v>
+      </c>
+      <c r="L6" s="63">
+        <v>46</v>
+      </c>
+      <c r="M6" s="63">
+        <f>2*(K6*L6)/(K6+L6)</f>
+        <v>50.912621359223301</v>
+      </c>
+      <c r="N6" s="63">
+        <v>87</v>
+      </c>
+      <c r="O6" s="63"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M7" s="42"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B8" s="63" t="s">
+        <v>120</v>
+      </c>
+      <c r="C8" s="66">
+        <v>0</v>
+      </c>
+      <c r="D8" s="53" t="s">
+        <v>141</v>
+      </c>
+      <c r="E8" s="53" t="s">
+        <v>142</v>
+      </c>
+      <c r="F8" s="53">
+        <v>8</v>
+      </c>
+      <c r="G8" s="85">
+        <v>6.1719999999999997E-2</v>
+      </c>
+      <c r="H8" s="85">
+        <v>1</v>
+      </c>
+      <c r="I8" s="85" t="s">
+        <v>147</v>
+      </c>
+      <c r="J8" s="86">
+        <v>65.81</v>
+      </c>
+      <c r="K8" s="86">
+        <v>25</v>
+      </c>
+      <c r="L8" s="86">
+        <v>26</v>
+      </c>
+      <c r="M8" s="86">
+        <f t="shared" ref="M8:M15" si="0">2*(K8*L8)/(K8+L8)</f>
+        <v>25.490196078431371</v>
+      </c>
+      <c r="N8" s="86">
+        <v>99</v>
+      </c>
+      <c r="O8" s="67"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B9" s="63" t="s">
+        <v>121</v>
+      </c>
+      <c r="C9" s="87">
+        <v>0</v>
+      </c>
+      <c r="D9" s="53" t="s">
+        <v>141</v>
+      </c>
+      <c r="E9" s="53" t="s">
+        <v>142</v>
+      </c>
+      <c r="F9" s="53">
+        <v>8</v>
+      </c>
+      <c r="G9" s="85">
+        <v>6.1719999999999997E-2</v>
+      </c>
+      <c r="H9" s="85">
+        <v>1</v>
+      </c>
+      <c r="I9" s="85" t="s">
+        <v>147</v>
+      </c>
+      <c r="J9" s="86">
+        <v>65.25</v>
+      </c>
+      <c r="K9" s="86">
+        <v>24</v>
+      </c>
+      <c r="L9" s="86">
+        <v>23</v>
+      </c>
+      <c r="M9" s="86">
+        <f t="shared" si="0"/>
+        <v>23.48936170212766</v>
+      </c>
+      <c r="N9" s="86">
+        <v>97</v>
+      </c>
+      <c r="O9" s="67"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B10" s="67"/>
+      <c r="C10" s="67"/>
+      <c r="D10" s="67"/>
+      <c r="E10" s="67"/>
+      <c r="F10" s="67"/>
+      <c r="G10" s="67"/>
+      <c r="H10" s="67"/>
+      <c r="I10" s="67"/>
+      <c r="J10" s="67"/>
+      <c r="K10" s="67"/>
+      <c r="L10" s="67"/>
+      <c r="M10" s="86"/>
+      <c r="N10" s="67"/>
+      <c r="O10" s="67"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B11" s="63" t="s">
+        <v>120</v>
+      </c>
+      <c r="C11" s="66">
+        <v>0</v>
+      </c>
+      <c r="D11" s="53" t="s">
+        <v>141</v>
+      </c>
+      <c r="E11" s="53" t="s">
+        <v>142</v>
+      </c>
+      <c r="F11" s="53">
+        <v>100</v>
+      </c>
+      <c r="G11" s="85">
+        <v>2.42</v>
+      </c>
+      <c r="H11" s="85">
+        <v>0</v>
+      </c>
+      <c r="I11" s="85" t="s">
+        <v>147</v>
+      </c>
+      <c r="J11" s="88">
+        <v>48.65</v>
+      </c>
+      <c r="K11" s="88">
+        <v>21</v>
+      </c>
+      <c r="L11" s="88">
+        <v>19</v>
+      </c>
+      <c r="M11" s="86">
+        <f t="shared" si="0"/>
+        <v>19.95</v>
+      </c>
+      <c r="N11" s="88">
+        <v>100</v>
+      </c>
+      <c r="O11" s="67"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B12" s="77" t="s">
+        <v>121</v>
+      </c>
+      <c r="C12" s="89">
+        <v>0</v>
+      </c>
+      <c r="D12" s="90" t="s">
+        <v>141</v>
+      </c>
+      <c r="E12" s="90" t="s">
+        <v>142</v>
+      </c>
+      <c r="F12" s="90">
+        <v>100</v>
+      </c>
+      <c r="G12" s="91">
+        <v>2.42</v>
+      </c>
+      <c r="H12" s="91">
+        <v>0</v>
+      </c>
+      <c r="I12" s="85" t="s">
+        <v>147</v>
+      </c>
+      <c r="J12" s="92">
+        <v>48.22</v>
+      </c>
+      <c r="K12" s="92">
+        <v>19</v>
+      </c>
+      <c r="L12" s="92">
+        <v>14</v>
+      </c>
+      <c r="M12" s="93">
+        <f t="shared" si="0"/>
+        <v>16.121212121212121</v>
+      </c>
+      <c r="N12" s="92">
+        <v>100</v>
+      </c>
+      <c r="O12" s="67"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B13" s="67"/>
+      <c r="C13" s="67"/>
+      <c r="D13" s="67"/>
+      <c r="E13" s="67"/>
+      <c r="F13" s="67"/>
+      <c r="G13" s="67"/>
+      <c r="H13" s="67"/>
+      <c r="I13" s="67"/>
+      <c r="J13" s="67"/>
+      <c r="K13" s="67"/>
+      <c r="L13" s="67"/>
+      <c r="M13" s="86"/>
+      <c r="N13" s="67"/>
+      <c r="O13" s="67"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B14" s="63" t="s">
+        <v>120</v>
+      </c>
+      <c r="C14" s="53">
+        <v>10</v>
+      </c>
+      <c r="D14" s="53" t="s">
+        <v>141</v>
+      </c>
+      <c r="E14" s="53" t="s">
+        <v>142</v>
+      </c>
+      <c r="F14" s="53">
+        <v>50</v>
+      </c>
+      <c r="G14" s="85">
+        <v>7.7025549999999998E-3</v>
+      </c>
+      <c r="H14" s="85">
+        <v>0.5</v>
+      </c>
+      <c r="I14" s="85" t="s">
+        <v>147</v>
+      </c>
+      <c r="J14" s="86">
+        <v>72.25</v>
+      </c>
+      <c r="K14" s="86">
+        <v>65</v>
+      </c>
+      <c r="L14" s="86">
+        <v>79</v>
+      </c>
+      <c r="M14" s="86">
+        <f t="shared" si="0"/>
+        <v>71.319444444444443</v>
+      </c>
+      <c r="N14" s="86">
+        <v>92</v>
+      </c>
+      <c r="O14" s="67"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B15" s="63" t="s">
+        <v>121</v>
+      </c>
+      <c r="C15" s="53">
+        <v>0</v>
+      </c>
+      <c r="D15" s="53" t="s">
+        <v>141</v>
+      </c>
+      <c r="E15" s="53" t="s">
+        <v>142</v>
+      </c>
+      <c r="F15" s="53">
+        <v>50</v>
+      </c>
+      <c r="G15" s="85">
+        <v>7.7025549999999998E-3</v>
+      </c>
+      <c r="H15" s="85">
+        <v>0.5</v>
+      </c>
+      <c r="I15" s="85" t="s">
+        <v>147</v>
+      </c>
+      <c r="J15" s="86">
+        <v>69.75</v>
+      </c>
+      <c r="K15" s="86">
+        <v>57</v>
+      </c>
+      <c r="L15" s="86">
+        <v>72</v>
+      </c>
+      <c r="M15" s="86">
+        <f t="shared" si="0"/>
+        <v>63.627906976744185</v>
+      </c>
+      <c r="N15" s="86">
+        <v>89</v>
+      </c>
+      <c r="O15" s="67"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B16" s="67"/>
+      <c r="C16" s="67"/>
+      <c r="D16" s="67"/>
+      <c r="E16" s="67"/>
+      <c r="F16" s="67"/>
+      <c r="G16" s="67"/>
+      <c r="H16" s="67"/>
+      <c r="I16" s="67"/>
+      <c r="J16" s="67"/>
+      <c r="K16" s="67"/>
+      <c r="L16" s="67"/>
+      <c r="M16" s="86"/>
+      <c r="N16" s="67"/>
+      <c r="O16" s="67"/>
+    </row>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B17" s="63" t="s">
+        <v>120</v>
+      </c>
+      <c r="C17" s="66">
+        <v>0</v>
+      </c>
+      <c r="D17" s="53" t="s">
+        <v>141</v>
+      </c>
+      <c r="E17" s="53" t="s">
+        <v>142</v>
+      </c>
+      <c r="F17" s="53">
+        <v>8</v>
+      </c>
+      <c r="G17" s="85">
+        <v>0.15770000000000001</v>
+      </c>
+      <c r="H17" s="85">
+        <v>0.5</v>
+      </c>
+      <c r="I17" s="85" t="s">
+        <v>147</v>
+      </c>
+      <c r="J17" s="86">
+        <v>49</v>
+      </c>
+      <c r="K17" s="86">
+        <v>24</v>
+      </c>
+      <c r="L17" s="86">
+        <v>26</v>
+      </c>
+      <c r="M17" s="86">
+        <f t="shared" ref="M17:M18" si="1">2*(K17*L17)/(K17+L17)</f>
+        <v>24.96</v>
+      </c>
+      <c r="N17" s="86">
+        <v>89</v>
+      </c>
+      <c r="O17" s="67"/>
+    </row>
+    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B18" s="63" t="s">
+        <v>121</v>
+      </c>
+      <c r="C18" s="87">
+        <v>0</v>
+      </c>
+      <c r="D18" s="53" t="s">
+        <v>141</v>
+      </c>
+      <c r="E18" s="53" t="s">
+        <v>142</v>
+      </c>
+      <c r="F18" s="53">
+        <v>8</v>
+      </c>
+      <c r="G18" s="85">
+        <v>0.15770000000000001</v>
+      </c>
+      <c r="H18" s="85">
+        <v>0.5</v>
+      </c>
+      <c r="I18" s="85" t="s">
+        <v>147</v>
+      </c>
+      <c r="J18" s="86">
+        <v>47</v>
+      </c>
+      <c r="K18" s="86">
+        <v>23</v>
+      </c>
+      <c r="L18" s="86">
+        <v>21</v>
+      </c>
+      <c r="M18" s="86">
+        <f t="shared" si="1"/>
+        <v>21.954545454545453</v>
+      </c>
+      <c r="N18" s="86">
+        <v>85</v>
+      </c>
+      <c r="O18" s="67"/>
+    </row>
+    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B19" s="67"/>
+      <c r="C19" s="67"/>
+      <c r="D19" s="67"/>
+      <c r="E19" s="67"/>
+      <c r="F19" s="67"/>
+      <c r="G19" s="67"/>
+      <c r="H19" s="67"/>
+      <c r="I19" s="67"/>
+      <c r="J19" s="67"/>
+      <c r="K19" s="67"/>
+      <c r="L19" s="67"/>
+      <c r="M19" s="86"/>
+      <c r="N19" s="67"/>
+      <c r="O19" s="67"/>
+    </row>
+    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B20" s="63" t="s">
+        <v>120</v>
+      </c>
+      <c r="C20" s="66">
+        <v>10</v>
+      </c>
+      <c r="D20" s="53" t="s">
+        <v>141</v>
+      </c>
+      <c r="E20" s="53" t="s">
+        <v>142</v>
+      </c>
+      <c r="F20" s="53">
+        <v>100</v>
+      </c>
+      <c r="G20" s="85">
+        <v>2.42</v>
+      </c>
+      <c r="H20" s="85">
+        <v>0</v>
+      </c>
+      <c r="I20" s="85" t="s">
+        <v>147</v>
+      </c>
+      <c r="J20" s="88">
+        <v>48.65</v>
+      </c>
+      <c r="K20" s="88">
+        <v>21</v>
+      </c>
+      <c r="L20" s="88">
+        <v>19</v>
+      </c>
+      <c r="M20" s="86">
+        <f t="shared" ref="M20:M21" si="2">2*(K20*L20)/(K20+L20)</f>
+        <v>19.95</v>
+      </c>
+      <c r="N20" s="88">
+        <v>100</v>
+      </c>
+      <c r="O20" s="67"/>
+    </row>
+    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B21" s="63" t="s">
+        <v>121</v>
+      </c>
+      <c r="C21" s="87">
+        <v>0</v>
+      </c>
+      <c r="D21" s="53" t="s">
+        <v>141</v>
+      </c>
+      <c r="E21" s="53" t="s">
+        <v>142</v>
+      </c>
+      <c r="F21" s="53">
+        <v>100</v>
+      </c>
+      <c r="G21" s="85">
+        <v>2.42</v>
+      </c>
+      <c r="H21" s="85">
+        <v>0</v>
+      </c>
+      <c r="I21" s="85" t="s">
+        <v>147</v>
+      </c>
+      <c r="J21" s="88">
+        <v>48.22</v>
+      </c>
+      <c r="K21" s="88">
+        <v>19</v>
+      </c>
+      <c r="L21" s="88">
+        <v>14</v>
+      </c>
+      <c r="M21" s="86">
+        <f t="shared" si="2"/>
+        <v>16.121212121212121</v>
+      </c>
+      <c r="N21" s="88">
+        <v>100</v>
+      </c>
+      <c r="O21" s="67"/>
+    </row>
+    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B22" s="67"/>
+      <c r="C22" s="67"/>
+      <c r="D22" s="67"/>
+      <c r="E22" s="67"/>
+      <c r="F22" s="67"/>
+      <c r="G22" s="67"/>
+      <c r="H22" s="67"/>
+      <c r="I22" s="67"/>
+      <c r="J22" s="67"/>
+      <c r="K22" s="67"/>
+      <c r="L22" s="67"/>
+      <c r="M22" s="67"/>
+      <c r="N22" s="67"/>
+      <c r="O22" s="67"/>
+    </row>
+    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B23" s="63" t="s">
+        <v>120</v>
+      </c>
+      <c r="C23" s="53">
+        <v>10</v>
+      </c>
+      <c r="D23" s="53" t="s">
+        <v>141</v>
+      </c>
+      <c r="E23" s="53" t="s">
+        <v>142</v>
+      </c>
+      <c r="F23" s="53">
+        <v>50</v>
+      </c>
+      <c r="G23" s="85">
+        <v>4.8374289999999999E-3</v>
+      </c>
+      <c r="H23" s="85">
+        <v>0.5</v>
+      </c>
+      <c r="I23" s="85" t="s">
+        <v>148</v>
+      </c>
+      <c r="J23" s="86">
+        <v>73.209999999999994</v>
+      </c>
+      <c r="K23" s="86">
+        <v>63</v>
+      </c>
+      <c r="L23" s="86">
+        <v>49</v>
+      </c>
+      <c r="M23" s="86">
+        <f>2*(K23*L23)/(K23+L23)</f>
+        <v>55.125</v>
+      </c>
+      <c r="N23" s="86">
+        <v>90</v>
+      </c>
+      <c r="O23" s="67"/>
+    </row>
+    <row r="24" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B24" s="63" t="s">
+        <v>121</v>
+      </c>
+      <c r="C24" s="53">
+        <v>0</v>
+      </c>
+      <c r="D24" s="53" t="s">
+        <v>141</v>
+      </c>
+      <c r="E24" s="53" t="s">
+        <v>142</v>
+      </c>
+      <c r="F24" s="53">
+        <v>50</v>
+      </c>
+      <c r="G24" s="85">
+        <v>4.8374289999999999E-3</v>
+      </c>
+      <c r="H24" s="85">
+        <v>0.5</v>
+      </c>
+      <c r="I24" s="85" t="s">
+        <v>148</v>
+      </c>
+      <c r="J24" s="86">
+        <v>71.239999999999995</v>
+      </c>
+      <c r="K24" s="86">
+        <v>57</v>
+      </c>
+      <c r="L24" s="86">
+        <v>46</v>
+      </c>
+      <c r="M24" s="86">
+        <f>2*(K24*L24)/(K24+L24)</f>
+        <v>50.912621359223301</v>
+      </c>
+      <c r="N24" s="86">
+        <v>87</v>
+      </c>
+      <c r="O24" s="67"/>
+    </row>
+    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B25" s="67"/>
+      <c r="C25" s="67"/>
+      <c r="D25" s="67"/>
+      <c r="E25" s="67"/>
+      <c r="F25" s="67"/>
+      <c r="G25" s="67"/>
+      <c r="H25" s="67"/>
+      <c r="I25" s="67"/>
+      <c r="J25" s="67"/>
+      <c r="K25" s="67"/>
+      <c r="L25" s="67"/>
+      <c r="M25" s="86"/>
+      <c r="N25" s="67"/>
+      <c r="O25" s="67"/>
+    </row>
+    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B26" s="63" t="s">
+        <v>120</v>
+      </c>
+      <c r="C26" s="66">
+        <v>5</v>
+      </c>
+      <c r="D26" s="53" t="s">
+        <v>141</v>
+      </c>
+      <c r="E26" s="53" t="s">
+        <v>142</v>
+      </c>
+      <c r="F26" s="53">
+        <v>8</v>
+      </c>
+      <c r="G26" s="85">
+        <v>6.1719999999999997E-2</v>
+      </c>
+      <c r="H26" s="85">
+        <v>0.5</v>
+      </c>
+      <c r="I26" s="85" t="s">
+        <v>148</v>
+      </c>
+      <c r="J26" s="86">
+        <v>65.81</v>
+      </c>
+      <c r="K26" s="86">
+        <v>25</v>
+      </c>
+      <c r="L26" s="86">
+        <v>26</v>
+      </c>
+      <c r="M26" s="86">
+        <f t="shared" ref="M26:M27" si="3">2*(K26*L26)/(K26+L26)</f>
+        <v>25.490196078431371</v>
+      </c>
+      <c r="N26" s="86">
+        <v>99</v>
+      </c>
+      <c r="O26" s="67"/>
+    </row>
+    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B27" s="63" t="s">
+        <v>121</v>
+      </c>
+      <c r="C27" s="87">
+        <v>0</v>
+      </c>
+      <c r="D27" s="53" t="s">
+        <v>141</v>
+      </c>
+      <c r="E27" s="53" t="s">
+        <v>142</v>
+      </c>
+      <c r="F27" s="53">
+        <v>8</v>
+      </c>
+      <c r="G27" s="85">
+        <v>6.1719999999999997E-2</v>
+      </c>
+      <c r="H27" s="85">
+        <v>0.5</v>
+      </c>
+      <c r="I27" s="85" t="s">
+        <v>148</v>
+      </c>
+      <c r="J27" s="86">
+        <v>65.25</v>
+      </c>
+      <c r="K27" s="86">
+        <v>24</v>
+      </c>
+      <c r="L27" s="86">
+        <v>23</v>
+      </c>
+      <c r="M27" s="86">
+        <f t="shared" si="3"/>
+        <v>23.48936170212766</v>
+      </c>
+      <c r="N27" s="86">
+        <v>97</v>
+      </c>
+      <c r="O27" s="67"/>
+    </row>
+    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B28" s="67"/>
+      <c r="C28" s="67"/>
+      <c r="D28" s="67"/>
+      <c r="E28" s="67"/>
+      <c r="F28" s="67"/>
+      <c r="G28" s="67"/>
+      <c r="H28" s="67"/>
+      <c r="I28" s="67"/>
+      <c r="J28" s="67"/>
+      <c r="K28" s="67"/>
+      <c r="L28" s="67"/>
+      <c r="M28" s="86"/>
+      <c r="N28" s="67"/>
+      <c r="O28" s="67"/>
+    </row>
+    <row r="29" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B29" s="63" t="s">
+        <v>120</v>
+      </c>
+      <c r="C29" s="66">
+        <v>0</v>
+      </c>
+      <c r="D29" s="53" t="s">
+        <v>141</v>
+      </c>
+      <c r="E29" s="53" t="s">
+        <v>142</v>
+      </c>
+      <c r="F29" s="53">
+        <v>100</v>
+      </c>
+      <c r="G29" s="85">
+        <v>2.42</v>
+      </c>
+      <c r="H29" s="85">
+        <v>0.5</v>
+      </c>
+      <c r="I29" s="85" t="s">
+        <v>148</v>
+      </c>
+      <c r="J29" s="88">
+        <v>48.65</v>
+      </c>
+      <c r="K29" s="88">
+        <v>21</v>
+      </c>
+      <c r="L29" s="88">
+        <v>19</v>
+      </c>
+      <c r="M29" s="86">
+        <f t="shared" ref="M29:M30" si="4">2*(K29*L29)/(K29+L29)</f>
+        <v>19.95</v>
+      </c>
+      <c r="N29" s="88">
+        <v>100</v>
+      </c>
+      <c r="O29" s="67"/>
+    </row>
+    <row r="30" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B30" s="63" t="s">
+        <v>121</v>
+      </c>
+      <c r="C30" s="87">
+        <v>0</v>
+      </c>
+      <c r="D30" s="53" t="s">
+        <v>141</v>
+      </c>
+      <c r="E30" s="53" t="s">
+        <v>142</v>
+      </c>
+      <c r="F30" s="53">
+        <v>100</v>
+      </c>
+      <c r="G30" s="85">
+        <v>2.42</v>
+      </c>
+      <c r="H30" s="85">
+        <v>0.5</v>
+      </c>
+      <c r="I30" s="85" t="s">
+        <v>148</v>
+      </c>
+      <c r="J30" s="88">
+        <v>48.22</v>
+      </c>
+      <c r="K30" s="88">
+        <v>19</v>
+      </c>
+      <c r="L30" s="88">
+        <v>14</v>
+      </c>
+      <c r="M30" s="86">
+        <f t="shared" si="4"/>
+        <v>16.121212121212121</v>
+      </c>
+      <c r="N30" s="88">
+        <v>100</v>
+      </c>
+      <c r="O30" s="67"/>
+    </row>
+    <row r="31" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B31" s="67"/>
+      <c r="C31" s="67"/>
+      <c r="D31" s="67"/>
+      <c r="E31" s="67"/>
+      <c r="F31" s="67"/>
+      <c r="G31" s="67"/>
+      <c r="H31" s="67"/>
+      <c r="I31" s="67"/>
+      <c r="J31" s="67"/>
+      <c r="K31" s="67"/>
+      <c r="L31" s="67"/>
+      <c r="M31" s="67"/>
+      <c r="N31" s="67"/>
+      <c r="O31" s="67"/>
+    </row>
+    <row r="32" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B32" s="67"/>
+      <c r="C32" s="67"/>
+      <c r="D32" s="67"/>
+      <c r="E32" s="67"/>
+      <c r="F32" s="67"/>
+      <c r="G32" s="67"/>
+      <c r="H32" s="67"/>
+      <c r="I32" s="67"/>
+      <c r="J32" s="67"/>
+      <c r="K32" s="67"/>
+      <c r="L32" s="67"/>
+      <c r="M32" s="67"/>
+      <c r="N32" s="67"/>
+      <c r="O32" s="67"/>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B33" s="67"/>
+      <c r="C33" s="67"/>
+      <c r="D33" s="67"/>
+      <c r="E33" s="67"/>
+      <c r="F33" s="67"/>
+      <c r="G33" s="67"/>
+      <c r="H33" s="67"/>
+      <c r="I33" s="67"/>
+      <c r="J33" s="67"/>
+      <c r="K33" s="67"/>
+      <c r="L33" s="67"/>
+      <c r="M33" s="67"/>
+      <c r="N33" s="67"/>
+      <c r="O33" s="67"/>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B34" s="67"/>
+      <c r="C34" s="67"/>
+      <c r="D34" s="67"/>
+      <c r="E34" s="67"/>
+      <c r="F34" s="67"/>
+      <c r="G34" s="67"/>
+      <c r="H34" s="67"/>
+      <c r="I34" s="67"/>
+      <c r="J34" s="67"/>
+      <c r="K34" s="67"/>
+      <c r="L34" s="67"/>
+      <c r="M34" s="67"/>
+      <c r="N34" s="67"/>
+      <c r="O34" s="67"/>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B35" s="67"/>
+      <c r="C35" s="67"/>
+      <c r="D35" s="67"/>
+      <c r="E35" s="67"/>
+      <c r="F35" s="67"/>
+      <c r="G35" s="67"/>
+      <c r="H35" s="67"/>
+      <c r="I35" s="67"/>
+      <c r="J35" s="67"/>
+      <c r="K35" s="67"/>
+      <c r="L35" s="67"/>
+      <c r="M35" s="67"/>
+      <c r="N35" s="67"/>
+      <c r="O35" s="67"/>
+    </row>
+    <row r="36" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B36" s="67"/>
+      <c r="C36" s="67"/>
+      <c r="D36" s="67"/>
+      <c r="E36" s="67"/>
+      <c r="F36" s="67"/>
+      <c r="G36" s="67"/>
+      <c r="H36" s="67"/>
+      <c r="I36" s="67"/>
+      <c r="J36" s="67"/>
+      <c r="K36" s="67"/>
+      <c r="L36" s="67"/>
+      <c r="M36" s="67"/>
+      <c r="N36" s="67"/>
+      <c r="O36" s="67"/>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B37" s="67"/>
+      <c r="C37" s="67"/>
+      <c r="D37" s="67"/>
+      <c r="E37" s="67"/>
+      <c r="F37" s="67"/>
+      <c r="G37" s="67"/>
+      <c r="H37" s="67"/>
+      <c r="I37" s="67"/>
+      <c r="J37" s="67"/>
+      <c r="K37" s="67"/>
+      <c r="L37" s="67"/>
+      <c r="M37" s="67"/>
+      <c r="N37" s="67"/>
+      <c r="O37" s="67"/>
+    </row>
+    <row r="38" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B38" s="67"/>
+      <c r="C38" s="67"/>
+      <c r="D38" s="67"/>
+      <c r="E38" s="67"/>
+      <c r="F38" s="67"/>
+      <c r="G38" s="67"/>
+      <c r="H38" s="67"/>
+      <c r="I38" s="67"/>
+      <c r="J38" s="67"/>
+      <c r="K38" s="67"/>
+      <c r="L38" s="67"/>
+      <c r="M38" s="67"/>
+      <c r="N38" s="67"/>
+      <c r="O38" s="67"/>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B39" s="67"/>
+      <c r="C39" s="67"/>
+      <c r="D39" s="67"/>
+      <c r="E39" s="67"/>
+      <c r="F39" s="67"/>
+      <c r="G39" s="67"/>
+      <c r="H39" s="67"/>
+      <c r="I39" s="67"/>
+      <c r="J39" s="67"/>
+      <c r="K39" s="67"/>
+      <c r="L39" s="67"/>
+      <c r="M39" s="67"/>
+      <c r="N39" s="67"/>
+      <c r="O39" s="67"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B40" s="67"/>
+      <c r="C40" s="67"/>
+      <c r="D40" s="67"/>
+      <c r="E40" s="67"/>
+      <c r="F40" s="67"/>
+      <c r="G40" s="67"/>
+      <c r="H40" s="67"/>
+      <c r="I40" s="67"/>
+      <c r="J40" s="67"/>
+      <c r="K40" s="67"/>
+      <c r="L40" s="67"/>
+      <c r="M40" s="67"/>
+      <c r="N40" s="67"/>
+      <c r="O40" s="67"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:I24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:H9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="5" width="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15" customWidth="1"/>
+    <col min="8" max="8" width="19" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A3" s="75" t="s">
+        <v>68</v>
+      </c>
+      <c r="B3" s="54"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="76" t="s">
+        <v>57</v>
+      </c>
+      <c r="E3" s="76" t="s">
+        <v>61</v>
+      </c>
+      <c r="F3" s="76" t="s">
+        <v>58</v>
+      </c>
+      <c r="G3" s="76" t="s">
+        <v>143</v>
+      </c>
+      <c r="H3" s="76" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B4" s="63"/>
+      <c r="C4" s="79" t="s">
+        <v>116</v>
+      </c>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="42"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B5" s="63" t="s">
+        <v>120</v>
+      </c>
+      <c r="C5" s="63">
+        <v>3</v>
+      </c>
+      <c r="D5" s="63">
+        <v>72.239999999999995</v>
+      </c>
+      <c r="E5" s="63">
+        <v>63</v>
+      </c>
+      <c r="F5" s="63">
+        <v>49</v>
+      </c>
+      <c r="G5" s="63">
+        <f>2*(E5*F5)/(E5+F5)</f>
+        <v>55.125</v>
+      </c>
+      <c r="H5" s="63">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B6" s="63" t="s">
+        <v>121</v>
+      </c>
+      <c r="C6" s="63">
+        <v>3</v>
+      </c>
+      <c r="D6" s="63">
+        <v>70.12</v>
+      </c>
+      <c r="E6" s="63">
+        <v>57</v>
+      </c>
+      <c r="F6" s="63">
+        <v>46</v>
+      </c>
+      <c r="G6" s="63">
+        <f>2*(E6*F6)/(E6+F6)</f>
+        <v>50.912621359223301</v>
+      </c>
+      <c r="H6" s="63">
+        <v>87</v>
+      </c>
+      <c r="I6" s="78"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G7" s="42"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B8" s="63" t="s">
+        <v>120</v>
+      </c>
+      <c r="C8" s="63">
+        <v>7</v>
+      </c>
+      <c r="D8" s="63">
+        <v>73.150000000000006</v>
+      </c>
+      <c r="E8" s="63">
+        <v>67</v>
+      </c>
+      <c r="F8" s="63">
+        <v>48</v>
+      </c>
+      <c r="G8" s="63">
+        <f>2*(E8*F8)/(E8+F8)</f>
+        <v>55.930434782608693</v>
+      </c>
+      <c r="H8" s="63">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B9" s="63" t="s">
+        <v>121</v>
+      </c>
+      <c r="C9" s="63">
+        <v>7</v>
+      </c>
+      <c r="D9" s="63">
+        <v>71.099999999999994</v>
+      </c>
+      <c r="E9" s="63">
+        <v>63</v>
+      </c>
+      <c r="F9" s="63">
+        <v>45</v>
+      </c>
+      <c r="G9" s="63">
+        <f>2*(E9*F9)/(E9+F9)</f>
+        <v>52.5</v>
+      </c>
+      <c r="H9" s="63">
+        <v>90</v>
+      </c>
+      <c r="I9" s="78"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B11" s="63" t="s">
+        <v>120</v>
+      </c>
+      <c r="C11" s="63">
+        <v>11</v>
+      </c>
+      <c r="D11" s="63">
+        <v>74.12</v>
+      </c>
+      <c r="E11" s="63">
+        <v>71</v>
+      </c>
+      <c r="F11" s="63">
+        <v>47</v>
+      </c>
+      <c r="G11" s="63">
+        <f>2*(E11*F11)/(E11+F11)</f>
+        <v>56.559322033898304</v>
+      </c>
+      <c r="H11" s="63">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B12" s="63" t="s">
+        <v>121</v>
+      </c>
+      <c r="C12" s="63">
+        <v>11</v>
+      </c>
+      <c r="D12" s="63">
+        <v>72.13</v>
+      </c>
+      <c r="E12" s="63">
+        <v>69</v>
+      </c>
+      <c r="F12" s="63">
+        <v>45</v>
+      </c>
+      <c r="G12" s="63">
+        <f>2*(E12*F12)/(E12+F12)</f>
+        <v>54.473684210526315</v>
+      </c>
+      <c r="H12" s="63">
+        <v>91</v>
+      </c>
+      <c r="I12" s="78"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B14" s="63" t="s">
+        <v>120</v>
+      </c>
+      <c r="C14" s="63">
+        <v>17</v>
+      </c>
+      <c r="D14" s="63">
+        <v>76.12</v>
+      </c>
+      <c r="E14" s="63">
+        <v>73</v>
+      </c>
+      <c r="F14" s="63">
+        <v>49</v>
+      </c>
+      <c r="G14" s="63">
+        <f>2*(E14*F14)/(E14+F14)</f>
+        <v>58.639344262295083</v>
+      </c>
+      <c r="H14" s="63">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B15" s="63" t="s">
+        <v>121</v>
+      </c>
+      <c r="C15" s="63">
+        <v>17</v>
+      </c>
+      <c r="D15" s="63">
+        <v>72.12</v>
+      </c>
+      <c r="E15" s="63">
+        <v>69</v>
+      </c>
+      <c r="F15" s="63">
+        <v>42</v>
+      </c>
+      <c r="G15" s="63">
+        <f>2*(E15*F15)/(E15+F15)</f>
+        <v>52.216216216216218</v>
+      </c>
+      <c r="H15" s="63">
+        <v>83</v>
+      </c>
+      <c r="I15" s="78"/>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B17" s="63" t="s">
+        <v>120</v>
+      </c>
+      <c r="C17" s="63">
+        <v>21</v>
+      </c>
+      <c r="D17" s="63">
+        <v>75.12</v>
+      </c>
+      <c r="E17" s="63">
+        <v>72</v>
+      </c>
+      <c r="F17" s="63">
+        <v>49</v>
+      </c>
+      <c r="G17" s="63">
+        <f>2*(E17*F17)/(E17+F17)</f>
+        <v>58.314049586776861</v>
+      </c>
+      <c r="H17" s="63">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B18" s="63" t="s">
+        <v>121</v>
+      </c>
+      <c r="C18" s="63">
+        <v>21</v>
+      </c>
+      <c r="D18" s="63">
+        <v>70.12</v>
+      </c>
+      <c r="E18" s="63">
+        <v>69</v>
+      </c>
+      <c r="F18" s="63">
+        <v>46</v>
+      </c>
+      <c r="G18" s="63">
+        <f>2*(E18*F18)/(E18+F18)</f>
+        <v>55.2</v>
+      </c>
+      <c r="H18" s="63">
+        <v>87</v>
+      </c>
+      <c r="I18" s="78"/>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B20" s="63" t="s">
+        <v>120</v>
+      </c>
+      <c r="C20" s="63">
+        <v>23</v>
+      </c>
+      <c r="D20" s="63">
+        <v>69.2</v>
+      </c>
+      <c r="E20" s="63">
+        <v>71</v>
+      </c>
+      <c r="F20" s="63">
+        <v>52</v>
+      </c>
+      <c r="G20" s="63">
+        <f>2*(E20*F20)/(E20+F20)</f>
+        <v>60.032520325203251</v>
+      </c>
+      <c r="H20" s="63">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B21" s="63" t="s">
+        <v>121</v>
+      </c>
+      <c r="C21" s="63">
+        <v>23</v>
+      </c>
+      <c r="D21" s="63">
+        <v>64.12</v>
+      </c>
+      <c r="E21" s="63">
+        <v>60</v>
+      </c>
+      <c r="F21" s="63">
+        <v>50</v>
+      </c>
+      <c r="G21" s="63">
+        <f>2*(E21*F21)/(E21+F21)</f>
+        <v>54.545454545454547</v>
+      </c>
+      <c r="H21" s="63">
+        <v>88</v>
+      </c>
+      <c r="I21" s="78"/>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B23" s="63" t="s">
+        <v>120</v>
+      </c>
+      <c r="C23" s="63" t="s">
+        <v>170</v>
+      </c>
+      <c r="D23" s="63">
+        <v>73.13</v>
+      </c>
+      <c r="E23" s="63">
+        <v>73.3</v>
+      </c>
+      <c r="F23" s="63">
+        <v>55</v>
+      </c>
+      <c r="G23" s="63">
+        <f>2*(E23*F23)/(E23+F23)</f>
+        <v>62.844894777864376</v>
+      </c>
+      <c r="H23" s="63">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B24" s="63" t="s">
+        <v>121</v>
+      </c>
+      <c r="C24" s="63" t="s">
+        <v>170</v>
+      </c>
+      <c r="D24" s="63">
+        <v>72.12</v>
+      </c>
+      <c r="E24" s="63">
+        <v>69.3</v>
+      </c>
+      <c r="F24" s="63">
+        <v>46</v>
+      </c>
+      <c r="G24" s="63">
+        <f>2*(E24*F24)/(E24+F24)</f>
+        <v>55.295750216825667</v>
+      </c>
+      <c r="H24" s="63">
+        <v>88</v>
+      </c>
+      <c r="I24" s="78"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:Q34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.85546875" customWidth="1"/>
+    <col min="2" max="2" width="19.85546875" customWidth="1"/>
+    <col min="3" max="3" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.42578125" customWidth="1"/>
+    <col min="6" max="6" width="16" customWidth="1"/>
+    <col min="7" max="7" width="17" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" customWidth="1"/>
+    <col min="9" max="9" width="14" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" customWidth="1"/>
+    <col min="12" max="12" width="13.5703125" customWidth="1"/>
+    <col min="13" max="13" width="13.140625" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A3" s="75" t="s">
+        <v>149</v>
+      </c>
+      <c r="B3" s="54"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="76" t="s">
+        <v>57</v>
+      </c>
+      <c r="K3" s="76" t="s">
+        <v>61</v>
+      </c>
+      <c r="L3" s="76" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" s="76" t="s">
+        <v>143</v>
+      </c>
+      <c r="N3" s="76" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B4" s="63"/>
+      <c r="C4" s="79" t="s">
+        <v>137</v>
+      </c>
+      <c r="D4" s="79" t="s">
+        <v>150</v>
+      </c>
+      <c r="E4" s="79" t="s">
+        <v>127</v>
+      </c>
+      <c r="F4" s="79" t="s">
+        <v>151</v>
+      </c>
+      <c r="G4" s="80" t="s">
+        <v>152</v>
+      </c>
+      <c r="H4" s="79" t="s">
+        <v>155</v>
+      </c>
+      <c r="I4" s="79" t="s">
+        <v>146</v>
+      </c>
+      <c r="J4" s="42"/>
+      <c r="K4" s="42"/>
+      <c r="L4" s="42"/>
+      <c r="M4" s="42"/>
+      <c r="N4" s="42"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B5" s="63" t="s">
+        <v>120</v>
+      </c>
+      <c r="C5" s="53">
+        <v>0</v>
+      </c>
+      <c r="D5" s="53" t="s">
+        <v>118</v>
+      </c>
+      <c r="E5" s="53">
+        <v>0</v>
+      </c>
+      <c r="F5" s="85">
+        <v>1</v>
+      </c>
+      <c r="G5" s="85">
+        <v>0</v>
+      </c>
+      <c r="H5" s="85" t="s">
+        <v>156</v>
+      </c>
+      <c r="I5" s="85"/>
+      <c r="J5" s="85">
+        <v>74.569999999999993</v>
+      </c>
+      <c r="K5" s="85">
+        <v>50</v>
+      </c>
+      <c r="L5" s="85">
+        <v>51</v>
+      </c>
+      <c r="M5" s="85">
+        <f>2*(K5*L5)/(K5+L5)</f>
+        <v>50.495049504950494</v>
+      </c>
+      <c r="N5" s="85">
+        <v>99</v>
+      </c>
+      <c r="O5" s="85"/>
+      <c r="P5" s="67"/>
+      <c r="Q5" s="67"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B6" s="53" t="s">
+        <v>121</v>
+      </c>
+      <c r="C6" s="53">
+        <v>0</v>
+      </c>
+      <c r="D6" s="53" t="s">
+        <v>118</v>
+      </c>
+      <c r="E6" s="53">
+        <v>0</v>
+      </c>
+      <c r="F6" s="85">
+        <v>1</v>
+      </c>
+      <c r="G6" s="85">
+        <v>0</v>
+      </c>
+      <c r="H6" s="85" t="s">
+        <v>156</v>
+      </c>
+      <c r="I6" s="85"/>
+      <c r="J6" s="85">
+        <v>74.58</v>
+      </c>
+      <c r="K6" s="85">
+        <v>48</v>
+      </c>
+      <c r="L6" s="85">
+        <v>49</v>
+      </c>
+      <c r="M6" s="85">
+        <f>2*(K6*L6)/(K6+L6)</f>
+        <v>48.494845360824741</v>
+      </c>
+      <c r="N6" s="85">
+        <v>98</v>
+      </c>
+      <c r="O6" s="85"/>
+      <c r="P6" s="67"/>
+      <c r="Q6" s="67"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B7" s="67"/>
+      <c r="C7" s="67"/>
+      <c r="D7" s="67"/>
+      <c r="E7" s="67"/>
+      <c r="F7" s="85"/>
+      <c r="G7" s="85"/>
+      <c r="H7" s="85"/>
+      <c r="I7" s="85"/>
+      <c r="J7" s="85"/>
+      <c r="K7" s="85"/>
+      <c r="L7" s="85"/>
+      <c r="M7" s="85"/>
+      <c r="N7" s="85"/>
+      <c r="O7" s="85"/>
+      <c r="P7" s="67"/>
+      <c r="Q7" s="67"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B8" s="63" t="s">
+        <v>120</v>
+      </c>
+      <c r="C8" s="53">
+        <v>0</v>
+      </c>
+      <c r="D8" s="53" t="s">
+        <v>153</v>
+      </c>
+      <c r="E8" s="53">
+        <v>0.2</v>
+      </c>
+      <c r="F8" s="85">
+        <v>1</v>
+      </c>
+      <c r="G8" s="85">
+        <v>0</v>
+      </c>
+      <c r="H8" s="85" t="s">
+        <v>156</v>
+      </c>
+      <c r="I8" s="85"/>
+      <c r="J8" s="85">
+        <v>84.09</v>
+      </c>
+      <c r="K8" s="85">
+        <v>80</v>
+      </c>
+      <c r="L8" s="85">
+        <v>70</v>
+      </c>
+      <c r="M8" s="85">
+        <f>2*(K8*L8)/(K8+L8)</f>
+        <v>74.666666666666671</v>
+      </c>
+      <c r="N8" s="85">
+        <v>97</v>
+      </c>
+      <c r="O8" s="67"/>
+      <c r="P8" s="67"/>
+      <c r="Q8" s="67"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B9" s="63" t="s">
+        <v>121</v>
+      </c>
+      <c r="C9" s="53">
+        <v>0</v>
+      </c>
+      <c r="D9" s="53" t="s">
+        <v>153</v>
+      </c>
+      <c r="E9" s="53">
+        <v>0.2</v>
+      </c>
+      <c r="F9" s="85">
+        <v>1</v>
+      </c>
+      <c r="G9" s="85">
+        <v>0</v>
+      </c>
+      <c r="H9" s="85" t="s">
+        <v>156</v>
+      </c>
+      <c r="I9" s="85"/>
+      <c r="J9" s="85">
+        <v>81.180000000000007</v>
+      </c>
+      <c r="K9" s="85">
+        <v>72</v>
+      </c>
+      <c r="L9" s="85">
+        <v>70</v>
+      </c>
+      <c r="M9" s="85">
+        <f>2*(K9*L9)/(K9+L9)</f>
+        <v>70.985915492957744</v>
+      </c>
+      <c r="N9" s="85">
+        <v>95</v>
+      </c>
+      <c r="O9" s="67"/>
+      <c r="P9" s="67"/>
+      <c r="Q9" s="67"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B10" s="67"/>
+      <c r="C10" s="67"/>
+      <c r="D10" s="67"/>
+      <c r="E10" s="67"/>
+      <c r="F10" s="67"/>
+      <c r="G10" s="67"/>
+      <c r="H10" s="67"/>
+      <c r="I10" s="67"/>
+      <c r="J10" s="67"/>
+      <c r="K10" s="67"/>
+      <c r="L10" s="67"/>
+      <c r="M10" s="67"/>
+      <c r="N10" s="67"/>
+      <c r="O10" s="67"/>
+      <c r="P10" s="67"/>
+      <c r="Q10" s="67"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B11" s="63" t="s">
+        <v>120</v>
+      </c>
+      <c r="C11" s="53">
+        <v>0</v>
+      </c>
+      <c r="D11" s="53" t="s">
+        <v>153</v>
+      </c>
+      <c r="E11" s="53">
+        <v>0.5</v>
+      </c>
+      <c r="F11" s="85">
+        <v>1</v>
+      </c>
+      <c r="G11" s="85">
+        <v>0</v>
+      </c>
+      <c r="H11" s="85" t="s">
+        <v>156</v>
+      </c>
+      <c r="I11" s="85"/>
+      <c r="J11" s="85">
+        <v>89.68</v>
+      </c>
+      <c r="K11" s="85">
+        <v>90</v>
+      </c>
+      <c r="L11" s="85">
+        <v>89</v>
+      </c>
+      <c r="M11" s="85">
+        <f>2*(K11*L11)/(K11+L11)</f>
+        <v>89.497206703910621</v>
+      </c>
+      <c r="N11" s="85">
+        <v>99</v>
+      </c>
+      <c r="O11" s="67"/>
+      <c r="P11" s="67"/>
+      <c r="Q11" s="67"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B12" s="63" t="s">
+        <v>121</v>
+      </c>
+      <c r="C12" s="53">
+        <v>0</v>
+      </c>
+      <c r="D12" s="53" t="s">
+        <v>153</v>
+      </c>
+      <c r="E12" s="53">
+        <v>0.5</v>
+      </c>
+      <c r="F12" s="85">
+        <v>1</v>
+      </c>
+      <c r="G12" s="85">
+        <v>0</v>
+      </c>
+      <c r="H12" s="85" t="s">
+        <v>156</v>
+      </c>
+      <c r="I12" s="85"/>
+      <c r="J12" s="85">
+        <v>83.61</v>
+      </c>
+      <c r="K12" s="85">
+        <v>85</v>
+      </c>
+      <c r="L12" s="85">
+        <v>83</v>
+      </c>
+      <c r="M12" s="85">
+        <f>2*(K12*L12)/(K12+L12)</f>
+        <v>83.988095238095241</v>
+      </c>
+      <c r="N12" s="85">
+        <v>99</v>
+      </c>
+      <c r="O12" s="67"/>
+      <c r="P12" s="67"/>
+      <c r="Q12" s="67"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B13" s="67"/>
+      <c r="C13" s="67"/>
+      <c r="D13" s="67"/>
+      <c r="E13" s="67"/>
+      <c r="F13" s="67"/>
+      <c r="G13" s="67"/>
+      <c r="H13" s="67"/>
+      <c r="I13" s="67"/>
+      <c r="J13" s="67"/>
+      <c r="K13" s="67"/>
+      <c r="L13" s="67"/>
+      <c r="M13" s="67"/>
+      <c r="N13" s="67"/>
+      <c r="O13" s="67"/>
+      <c r="P13" s="67"/>
+      <c r="Q13" s="67"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B14" s="63" t="s">
+        <v>120</v>
+      </c>
+      <c r="C14" s="53">
+        <v>0</v>
+      </c>
+      <c r="D14" s="53" t="s">
+        <v>153</v>
+      </c>
+      <c r="E14" s="53">
+        <v>1</v>
+      </c>
+      <c r="F14" s="85">
+        <v>1</v>
+      </c>
+      <c r="G14" s="85">
+        <v>0</v>
+      </c>
+      <c r="H14" s="85" t="s">
+        <v>156</v>
+      </c>
+      <c r="I14" s="85"/>
+      <c r="J14" s="85">
+        <v>85.45</v>
+      </c>
+      <c r="K14" s="85">
+        <v>80</v>
+      </c>
+      <c r="L14" s="85">
+        <v>70</v>
+      </c>
+      <c r="M14" s="85">
+        <f>2*(K14*L14)/(K14+L14)</f>
+        <v>74.666666666666671</v>
+      </c>
+      <c r="N14" s="85">
+        <v>97</v>
+      </c>
+      <c r="O14" s="67"/>
+      <c r="P14" s="67"/>
+      <c r="Q14" s="67"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B15" s="63" t="s">
+        <v>121</v>
+      </c>
+      <c r="C15" s="53">
+        <v>0</v>
+      </c>
+      <c r="D15" s="53" t="s">
+        <v>153</v>
+      </c>
+      <c r="E15" s="53">
+        <v>1</v>
+      </c>
+      <c r="F15" s="85">
+        <v>1</v>
+      </c>
+      <c r="G15" s="85">
+        <v>0</v>
+      </c>
+      <c r="H15" s="85" t="s">
+        <v>156</v>
+      </c>
+      <c r="I15" s="85"/>
+      <c r="J15" s="85">
+        <v>81.45</v>
+      </c>
+      <c r="K15" s="85">
+        <v>72</v>
+      </c>
+      <c r="L15" s="85">
+        <v>70</v>
+      </c>
+      <c r="M15" s="85">
+        <f>2*(K15*L15)/(K15+L15)</f>
+        <v>70.985915492957744</v>
+      </c>
+      <c r="N15" s="85">
+        <v>95</v>
+      </c>
+      <c r="O15" s="67"/>
+      <c r="P15" s="67"/>
+      <c r="Q15" s="67"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B16" s="67"/>
+      <c r="C16" s="67"/>
+      <c r="D16" s="67"/>
+      <c r="E16" s="67"/>
+      <c r="F16" s="67"/>
+      <c r="G16" s="67"/>
+      <c r="H16" s="67"/>
+      <c r="I16" s="67"/>
+      <c r="J16" s="67"/>
+      <c r="K16" s="67"/>
+      <c r="L16" s="67"/>
+      <c r="M16" s="67"/>
+      <c r="N16" s="67"/>
+      <c r="O16" s="67"/>
+      <c r="P16" s="67"/>
+      <c r="Q16" s="67"/>
+    </row>
+    <row r="17" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B17" s="63" t="s">
+        <v>120</v>
+      </c>
+      <c r="C17" s="53">
+        <v>0</v>
+      </c>
+      <c r="D17" s="53" t="s">
+        <v>154</v>
+      </c>
+      <c r="E17" s="53">
+        <v>1</v>
+      </c>
+      <c r="F17" s="85">
+        <v>1</v>
+      </c>
+      <c r="G17" s="85">
+        <v>0</v>
+      </c>
+      <c r="H17" s="85" t="s">
+        <v>156</v>
+      </c>
+      <c r="I17" s="85"/>
+      <c r="J17" s="85">
+        <v>45</v>
+      </c>
+      <c r="K17" s="85">
+        <v>49</v>
+      </c>
+      <c r="L17" s="85">
+        <v>52</v>
+      </c>
+      <c r="M17" s="85">
+        <f>2*(K17*L17)/(K17+L17)</f>
+        <v>50.455445544554458</v>
+      </c>
+      <c r="N17" s="85">
+        <v>81</v>
+      </c>
+      <c r="O17" s="67"/>
+      <c r="P17" s="67"/>
+      <c r="Q17" s="67"/>
+    </row>
+    <row r="18" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B18" s="63" t="s">
+        <v>121</v>
+      </c>
+      <c r="C18" s="53">
+        <v>0</v>
+      </c>
+      <c r="D18" s="53" t="s">
+        <v>154</v>
+      </c>
+      <c r="E18" s="53">
+        <v>1</v>
+      </c>
+      <c r="F18" s="85">
+        <v>1</v>
+      </c>
+      <c r="G18" s="85">
+        <v>0</v>
+      </c>
+      <c r="H18" s="85" t="s">
+        <v>156</v>
+      </c>
+      <c r="I18" s="85"/>
+      <c r="J18" s="85">
+        <v>42</v>
+      </c>
+      <c r="K18" s="85">
+        <v>45</v>
+      </c>
+      <c r="L18" s="85">
+        <v>51</v>
+      </c>
+      <c r="M18" s="85">
+        <f>2*(K18*L18)/(K18+L18)</f>
+        <v>47.8125</v>
+      </c>
+      <c r="N18" s="85">
+        <v>81</v>
+      </c>
+      <c r="O18" s="67"/>
+      <c r="P18" s="67"/>
+      <c r="Q18" s="67"/>
+    </row>
+    <row r="19" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B19" s="67"/>
+      <c r="C19" s="67"/>
+      <c r="D19" s="67"/>
+      <c r="E19" s="67"/>
+      <c r="F19" s="67"/>
+      <c r="G19" s="67"/>
+      <c r="H19" s="67"/>
+      <c r="I19" s="67"/>
+      <c r="J19" s="67"/>
+      <c r="K19" s="67"/>
+      <c r="L19" s="67"/>
+      <c r="M19" s="67"/>
+      <c r="N19" s="67"/>
+      <c r="O19" s="67"/>
+      <c r="P19" s="67"/>
+      <c r="Q19" s="67"/>
+    </row>
+    <row r="20" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B20" s="63" t="s">
+        <v>120</v>
+      </c>
+      <c r="C20" s="53">
+        <v>0</v>
+      </c>
+      <c r="D20" s="53" t="s">
+        <v>154</v>
+      </c>
+      <c r="E20" s="53">
+        <v>0.1</v>
+      </c>
+      <c r="F20" s="85">
+        <v>1</v>
+      </c>
+      <c r="G20" s="85">
+        <v>0</v>
+      </c>
+      <c r="H20" s="85" t="s">
+        <v>156</v>
+      </c>
+      <c r="I20" s="85"/>
+      <c r="J20" s="85">
+        <v>53</v>
+      </c>
+      <c r="K20" s="85">
+        <v>50</v>
+      </c>
+      <c r="L20" s="85">
+        <v>51</v>
+      </c>
+      <c r="M20" s="85">
+        <f>2*(K20*L20)/(K20+L20)</f>
+        <v>50.495049504950494</v>
+      </c>
+      <c r="N20" s="85">
+        <v>99</v>
+      </c>
+      <c r="O20" s="67"/>
+      <c r="P20" s="67"/>
+      <c r="Q20" s="67"/>
+    </row>
+    <row r="21" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B21" s="63" t="s">
+        <v>121</v>
+      </c>
+      <c r="C21" s="53">
+        <v>0</v>
+      </c>
+      <c r="D21" s="53" t="s">
+        <v>154</v>
+      </c>
+      <c r="E21" s="53">
+        <v>0.1</v>
+      </c>
+      <c r="F21" s="85">
+        <v>1</v>
+      </c>
+      <c r="G21" s="85">
+        <v>0</v>
+      </c>
+      <c r="H21" s="85" t="s">
+        <v>156</v>
+      </c>
+      <c r="I21" s="85"/>
+      <c r="J21" s="85">
+        <v>51</v>
+      </c>
+      <c r="K21" s="85">
+        <v>50</v>
+      </c>
+      <c r="L21" s="85">
+        <v>51</v>
+      </c>
+      <c r="M21" s="85">
+        <f>2*(K21*L21)/(K21+L21)</f>
+        <v>50.495049504950494</v>
+      </c>
+      <c r="N21" s="85">
+        <v>99</v>
+      </c>
+      <c r="O21" s="67"/>
+      <c r="P21" s="67"/>
+      <c r="Q21" s="67"/>
+    </row>
+    <row r="22" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B22" s="67"/>
+      <c r="C22" s="67"/>
+      <c r="D22" s="67"/>
+      <c r="E22" s="67"/>
+      <c r="F22" s="67"/>
+      <c r="G22" s="67"/>
+      <c r="H22" s="67"/>
+      <c r="I22" s="67"/>
+      <c r="J22" s="67"/>
+      <c r="K22" s="67"/>
+      <c r="L22" s="67"/>
+      <c r="M22" s="67"/>
+      <c r="N22" s="67"/>
+      <c r="O22" s="67"/>
+      <c r="P22" s="67"/>
+      <c r="Q22" s="67"/>
+    </row>
+    <row r="23" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B23" s="63" t="s">
+        <v>120</v>
+      </c>
+      <c r="C23" s="53">
+        <v>0</v>
+      </c>
+      <c r="D23" s="53" t="s">
+        <v>153</v>
+      </c>
+      <c r="E23" s="53">
+        <v>0.5</v>
+      </c>
+      <c r="F23" s="85">
+        <v>10</v>
+      </c>
+      <c r="G23" s="85">
+        <v>0</v>
+      </c>
+      <c r="H23" s="85" t="s">
+        <v>156</v>
+      </c>
+      <c r="I23" s="85"/>
+      <c r="J23" s="85">
+        <v>90.2</v>
+      </c>
+      <c r="K23" s="85">
+        <v>95</v>
+      </c>
+      <c r="L23" s="85">
+        <v>99</v>
+      </c>
+      <c r="M23" s="85">
+        <f>2*(K23*L23)/(K23+L23)</f>
+        <v>96.958762886597938</v>
+      </c>
+      <c r="N23" s="85">
+        <v>99</v>
+      </c>
+      <c r="O23" s="67"/>
+      <c r="P23" s="67"/>
+      <c r="Q23" s="67"/>
+    </row>
+    <row r="24" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B24" s="63" t="s">
+        <v>121</v>
+      </c>
+      <c r="C24" s="53">
+        <v>0</v>
+      </c>
+      <c r="D24" s="53" t="s">
+        <v>154</v>
+      </c>
+      <c r="E24" s="53">
+        <v>0.5</v>
+      </c>
+      <c r="F24" s="85">
+        <v>10</v>
+      </c>
+      <c r="G24" s="85">
+        <v>0</v>
+      </c>
+      <c r="H24" s="85" t="s">
+        <v>156</v>
+      </c>
+      <c r="I24" s="85"/>
+      <c r="J24" s="85">
+        <v>85.05</v>
+      </c>
+      <c r="K24" s="85">
+        <v>85</v>
+      </c>
+      <c r="L24" s="85">
+        <v>79</v>
+      </c>
+      <c r="M24" s="85">
+        <f>2*(K24*L24)/(K24+L24)</f>
+        <v>81.890243902439025</v>
+      </c>
+      <c r="N24" s="85">
+        <v>99</v>
+      </c>
+      <c r="O24" s="67"/>
+      <c r="P24" s="67"/>
+      <c r="Q24" s="67"/>
+    </row>
+    <row r="25" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B25" s="67"/>
+      <c r="C25" s="67"/>
+      <c r="D25" s="67"/>
+      <c r="E25" s="67"/>
+      <c r="F25" s="67"/>
+      <c r="G25" s="67"/>
+      <c r="H25" s="67"/>
+      <c r="I25" s="67"/>
+      <c r="J25" s="67"/>
+      <c r="K25" s="67"/>
+      <c r="L25" s="67"/>
+      <c r="M25" s="67"/>
+      <c r="N25" s="67"/>
+      <c r="O25" s="67"/>
+      <c r="P25" s="67"/>
+      <c r="Q25" s="67"/>
+    </row>
+    <row r="26" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B26" s="63" t="s">
+        <v>120</v>
+      </c>
+      <c r="C26" s="53">
+        <v>0</v>
+      </c>
+      <c r="D26" s="53" t="s">
+        <v>153</v>
+      </c>
+      <c r="E26" s="53">
+        <v>0.1</v>
+      </c>
+      <c r="F26" s="85">
+        <v>100</v>
+      </c>
+      <c r="G26" s="85">
+        <v>0</v>
+      </c>
+      <c r="H26" s="85" t="s">
+        <v>156</v>
+      </c>
+      <c r="I26" s="85"/>
+      <c r="J26" s="85">
+        <v>83</v>
+      </c>
+      <c r="K26" s="85">
+        <v>80</v>
+      </c>
+      <c r="L26" s="85">
+        <v>72</v>
+      </c>
+      <c r="M26" s="85">
+        <f>2*(K26*L26)/(K26+L26)</f>
+        <v>75.78947368421052</v>
+      </c>
+      <c r="N26" s="85">
+        <v>97</v>
+      </c>
+      <c r="O26" s="67"/>
+      <c r="P26" s="67"/>
+      <c r="Q26" s="67"/>
+    </row>
+    <row r="27" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B27" s="63" t="s">
+        <v>121</v>
+      </c>
+      <c r="C27" s="53">
+        <v>0</v>
+      </c>
+      <c r="D27" s="53" t="s">
+        <v>153</v>
+      </c>
+      <c r="E27" s="53">
+        <v>0.1</v>
+      </c>
+      <c r="F27" s="85">
+        <v>100</v>
+      </c>
+      <c r="G27" s="85">
+        <v>0</v>
+      </c>
+      <c r="H27" s="85" t="s">
+        <v>156</v>
+      </c>
+      <c r="I27" s="85"/>
+      <c r="J27" s="85">
+        <v>82</v>
+      </c>
+      <c r="K27" s="85">
+        <v>75</v>
+      </c>
+      <c r="L27" s="85">
+        <v>69</v>
+      </c>
+      <c r="M27" s="85">
+        <f>2*(K27*L27)/(K27+L27)</f>
+        <v>71.875</v>
+      </c>
+      <c r="N27" s="85">
+        <v>92</v>
+      </c>
+      <c r="O27" s="67"/>
+      <c r="P27" s="67"/>
+      <c r="Q27" s="67"/>
+    </row>
+    <row r="28" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B28" s="67"/>
+      <c r="C28" s="67"/>
+      <c r="D28" s="67"/>
+      <c r="E28" s="67"/>
+      <c r="F28" s="67"/>
+      <c r="G28" s="67"/>
+      <c r="H28" s="67"/>
+      <c r="I28" s="67"/>
+      <c r="J28" s="67"/>
+      <c r="K28" s="67"/>
+      <c r="L28" s="67"/>
+      <c r="M28" s="67"/>
+      <c r="N28" s="67"/>
+      <c r="O28" s="67"/>
+      <c r="P28" s="67"/>
+      <c r="Q28" s="67"/>
+    </row>
+    <row r="29" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B29" s="67"/>
+      <c r="C29" s="67"/>
+      <c r="D29" s="67"/>
+      <c r="E29" s="67"/>
+      <c r="F29" s="67"/>
+      <c r="G29" s="67"/>
+      <c r="H29" s="67"/>
+      <c r="I29" s="67"/>
+      <c r="J29" s="67"/>
+      <c r="K29" s="67"/>
+      <c r="L29" s="67"/>
+      <c r="M29" s="67"/>
+      <c r="N29" s="67"/>
+      <c r="O29" s="67"/>
+      <c r="P29" s="67"/>
+      <c r="Q29" s="67"/>
+    </row>
+    <row r="30" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B30" s="67"/>
+      <c r="C30" s="67"/>
+      <c r="D30" s="67"/>
+      <c r="E30" s="67"/>
+      <c r="F30" s="67"/>
+      <c r="G30" s="67"/>
+      <c r="H30" s="67"/>
+      <c r="I30" s="67"/>
+      <c r="J30" s="67"/>
+      <c r="K30" s="67"/>
+      <c r="L30" s="67"/>
+      <c r="M30" s="67"/>
+      <c r="N30" s="67"/>
+      <c r="O30" s="67"/>
+      <c r="P30" s="67"/>
+      <c r="Q30" s="67"/>
+    </row>
+    <row r="31" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B31" s="67"/>
+      <c r="C31" s="67"/>
+      <c r="D31" s="67"/>
+      <c r="E31" s="67"/>
+      <c r="F31" s="67"/>
+      <c r="G31" s="67"/>
+      <c r="H31" s="67"/>
+      <c r="I31" s="67"/>
+      <c r="J31" s="67"/>
+      <c r="K31" s="67"/>
+      <c r="L31" s="67"/>
+      <c r="M31" s="67"/>
+      <c r="N31" s="67"/>
+      <c r="O31" s="67"/>
+      <c r="P31" s="67"/>
+      <c r="Q31" s="67"/>
+    </row>
+    <row r="32" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B32" s="67"/>
+      <c r="C32" s="67"/>
+      <c r="D32" s="67"/>
+      <c r="E32" s="67"/>
+      <c r="F32" s="67"/>
+      <c r="G32" s="67"/>
+      <c r="H32" s="67"/>
+      <c r="I32" s="67"/>
+      <c r="J32" s="67"/>
+      <c r="K32" s="67"/>
+      <c r="L32" s="67"/>
+      <c r="M32" s="67"/>
+      <c r="N32" s="67"/>
+      <c r="O32" s="67"/>
+      <c r="P32" s="67"/>
+      <c r="Q32" s="67"/>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B33" s="67"/>
+      <c r="C33" s="67"/>
+      <c r="D33" s="67"/>
+      <c r="E33" s="67"/>
+      <c r="F33" s="67"/>
+      <c r="G33" s="67"/>
+      <c r="H33" s="67"/>
+      <c r="I33" s="67"/>
+      <c r="J33" s="67"/>
+      <c r="K33" s="67"/>
+      <c r="L33" s="67"/>
+      <c r="M33" s="67"/>
+      <c r="N33" s="67"/>
+      <c r="O33" s="67"/>
+      <c r="P33" s="67"/>
+      <c r="Q33" s="67"/>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B34" s="67"/>
+      <c r="C34" s="67"/>
+      <c r="D34" s="67"/>
+      <c r="E34" s="67"/>
+      <c r="F34" s="67"/>
+      <c r="G34" s="67"/>
+      <c r="H34" s="67"/>
+      <c r="I34" s="67"/>
+      <c r="J34" s="67"/>
+      <c r="K34" s="67"/>
+      <c r="L34" s="67"/>
+      <c r="M34" s="67"/>
+      <c r="N34" s="67"/>
+      <c r="O34" s="67"/>
+      <c r="P34" s="67"/>
+      <c r="Q34" s="67"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q36"/>
+  <sheetViews>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="12.42578125" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" customWidth="1"/>
+    <col min="5" max="5" width="20" customWidth="1"/>
+    <col min="6" max="6" width="17.5703125" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="22.42578125" customWidth="1"/>
+    <col min="12" max="13" width="14" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="75" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" s="54"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="55"/>
+      <c r="L1" s="76" t="s">
+        <v>57</v>
+      </c>
+      <c r="M1" s="76" t="s">
+        <v>61</v>
+      </c>
+      <c r="N1" s="76" t="s">
+        <v>58</v>
+      </c>
+      <c r="O1" s="76" t="s">
+        <v>143</v>
+      </c>
+      <c r="P1" s="76" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B2" s="63"/>
+      <c r="C2" s="79" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="79" t="s">
+        <v>157</v>
+      </c>
+      <c r="E2" s="79" t="s">
+        <v>115</v>
+      </c>
+      <c r="F2" s="79" t="s">
+        <v>158</v>
+      </c>
+      <c r="G2" s="80" t="s">
+        <v>159</v>
+      </c>
+      <c r="H2" s="79" t="s">
+        <v>161</v>
+      </c>
+      <c r="I2" s="79" t="s">
+        <v>167</v>
+      </c>
+      <c r="J2" s="79" t="s">
+        <v>164</v>
+      </c>
+      <c r="K2" s="79" t="s">
+        <v>162</v>
+      </c>
+      <c r="L2" s="42"/>
+      <c r="M2" s="42"/>
+      <c r="N2" s="42"/>
+      <c r="O2" s="42"/>
+      <c r="P2" s="42"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B3" s="63" t="s">
+        <v>120</v>
+      </c>
+      <c r="C3" s="53" t="s">
+        <v>160</v>
+      </c>
+      <c r="D3" s="53">
+        <v>0.01</v>
+      </c>
+      <c r="E3" s="53">
+        <v>0</v>
+      </c>
+      <c r="F3" s="85">
+        <v>20</v>
+      </c>
+      <c r="G3" s="85">
+        <v>5</v>
+      </c>
+      <c r="H3" s="85">
+        <v>6</v>
+      </c>
+      <c r="I3" s="85">
+        <v>0</v>
+      </c>
+      <c r="J3" s="85" t="s">
+        <v>165</v>
+      </c>
+      <c r="K3" s="85" t="s">
+        <v>163</v>
+      </c>
+      <c r="L3" s="85">
+        <v>67.23</v>
+      </c>
+      <c r="M3" s="85">
+        <v>9</v>
+      </c>
+      <c r="N3" s="85">
+        <v>10</v>
+      </c>
+      <c r="O3" s="85">
+        <f>2*(M3*N3)/(M3+N3)</f>
+        <v>9.473684210526315</v>
+      </c>
+      <c r="P3" s="85">
+        <v>95</v>
+      </c>
+      <c r="Q3" s="74"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B4" s="53" t="s">
+        <v>121</v>
+      </c>
+      <c r="C4" s="53" t="s">
+        <v>160</v>
+      </c>
+      <c r="D4" s="53">
+        <v>0.01</v>
+      </c>
+      <c r="E4" s="53">
+        <v>0</v>
+      </c>
+      <c r="F4" s="85">
+        <v>20</v>
+      </c>
+      <c r="G4" s="85">
+        <v>5</v>
+      </c>
+      <c r="H4" s="85">
+        <v>6</v>
+      </c>
+      <c r="I4" s="85">
+        <v>0</v>
+      </c>
+      <c r="J4" s="85" t="s">
+        <v>165</v>
+      </c>
+      <c r="K4" s="85" t="s">
+        <v>163</v>
+      </c>
+      <c r="L4" s="85">
+        <v>66.23</v>
+      </c>
+      <c r="M4" s="85">
+        <v>9</v>
+      </c>
+      <c r="N4" s="85">
+        <v>10</v>
+      </c>
+      <c r="O4" s="85">
+        <f>2*(M4*N4)/(M4+N4)</f>
+        <v>9.473684210526315</v>
+      </c>
+      <c r="P4" s="85">
+        <v>93</v>
+      </c>
+      <c r="Q4" s="74"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B5" s="67"/>
+      <c r="C5" s="67"/>
+      <c r="D5" s="67"/>
+      <c r="E5" s="67"/>
+      <c r="F5" s="85"/>
+      <c r="G5" s="85"/>
+      <c r="H5" s="85"/>
+      <c r="I5" s="85"/>
+      <c r="J5" s="85"/>
+      <c r="K5" s="85"/>
+      <c r="L5" s="85"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="85"/>
+      <c r="P5" s="85"/>
+      <c r="Q5" s="74"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B6" s="63" t="s">
+        <v>120</v>
+      </c>
+      <c r="C6" s="53" t="s">
+        <v>160</v>
+      </c>
+      <c r="D6" s="53">
+        <v>0.01</v>
+      </c>
+      <c r="E6" s="53">
+        <v>0</v>
+      </c>
+      <c r="F6" s="85">
+        <v>20</v>
+      </c>
+      <c r="G6" s="85">
+        <v>5</v>
+      </c>
+      <c r="H6" s="85">
+        <v>6</v>
+      </c>
+      <c r="I6" s="85">
+        <v>0</v>
+      </c>
+      <c r="J6" s="85" t="s">
+        <v>166</v>
+      </c>
+      <c r="K6" s="85" t="s">
+        <v>163</v>
+      </c>
+      <c r="L6" s="85">
+        <v>37</v>
+      </c>
+      <c r="M6" s="85">
+        <v>45</v>
+      </c>
+      <c r="N6" s="85">
+        <v>70</v>
+      </c>
+      <c r="O6" s="85">
+        <f>2*(M6*N6)/(M6+N6)</f>
+        <v>54.782608695652172</v>
+      </c>
+      <c r="P6" s="85">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B7" s="63" t="s">
+        <v>121</v>
+      </c>
+      <c r="C7" s="53" t="s">
+        <v>160</v>
+      </c>
+      <c r="D7" s="53">
+        <v>0.01</v>
+      </c>
+      <c r="E7" s="53">
+        <v>0</v>
+      </c>
+      <c r="F7" s="85">
+        <v>20</v>
+      </c>
+      <c r="G7" s="85">
+        <v>5</v>
+      </c>
+      <c r="H7" s="85">
+        <v>6</v>
+      </c>
+      <c r="I7" s="85">
+        <v>0</v>
+      </c>
+      <c r="J7" s="85" t="s">
+        <v>166</v>
+      </c>
+      <c r="K7" s="85" t="s">
+        <v>163</v>
+      </c>
+      <c r="L7" s="85">
+        <v>35</v>
+      </c>
+      <c r="M7" s="85">
+        <v>43</v>
+      </c>
+      <c r="N7" s="85">
+        <v>66</v>
+      </c>
+      <c r="O7" s="85">
+        <f>2*(M7*N7)/(M7+N7)</f>
+        <v>52.073394495412842</v>
+      </c>
+      <c r="P7" s="85">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B8" s="67"/>
+      <c r="C8" s="67"/>
+      <c r="D8" s="67"/>
+      <c r="E8" s="67"/>
+      <c r="F8" s="67"/>
+      <c r="G8" s="67"/>
+      <c r="H8" s="67"/>
+      <c r="I8" s="67"/>
+      <c r="J8" s="67"/>
+      <c r="K8" s="67"/>
+      <c r="L8" s="67"/>
+      <c r="M8" s="67"/>
+      <c r="N8" s="67"/>
+      <c r="O8" s="67"/>
+      <c r="P8" s="67"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B9" s="63" t="s">
+        <v>120</v>
+      </c>
+      <c r="C9" s="53" t="s">
+        <v>160</v>
+      </c>
+      <c r="D9" s="94">
+        <v>0.03</v>
+      </c>
+      <c r="E9" s="53">
+        <v>0</v>
+      </c>
+      <c r="F9" s="85">
+        <v>20</v>
+      </c>
+      <c r="G9" s="85">
+        <v>5</v>
+      </c>
+      <c r="H9" s="85">
+        <v>6</v>
+      </c>
+      <c r="I9" s="85">
+        <v>0</v>
+      </c>
+      <c r="J9" s="85" t="s">
+        <v>168</v>
+      </c>
+      <c r="K9" s="85" t="s">
+        <v>163</v>
+      </c>
+      <c r="L9" s="85">
+        <v>49</v>
+      </c>
+      <c r="M9" s="85">
+        <v>55</v>
+      </c>
+      <c r="N9" s="85">
+        <v>73</v>
+      </c>
+      <c r="O9" s="85">
+        <f>2*(M9*N9)/(M9+N9)</f>
+        <v>62.734375</v>
+      </c>
+      <c r="P9" s="85">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B10" s="63" t="s">
+        <v>121</v>
+      </c>
+      <c r="C10" s="53" t="s">
+        <v>160</v>
+      </c>
+      <c r="D10" s="53">
+        <v>0.03</v>
+      </c>
+      <c r="E10" s="53">
+        <v>0</v>
+      </c>
+      <c r="F10" s="85">
+        <v>20</v>
+      </c>
+      <c r="G10" s="85">
+        <v>5</v>
+      </c>
+      <c r="H10" s="85">
+        <v>6</v>
+      </c>
+      <c r="I10" s="85">
+        <v>0</v>
+      </c>
+      <c r="J10" s="85" t="s">
+        <v>168</v>
+      </c>
+      <c r="K10" s="85" t="s">
+        <v>163</v>
+      </c>
+      <c r="L10" s="85">
+        <v>45</v>
+      </c>
+      <c r="M10" s="85">
+        <v>50</v>
+      </c>
+      <c r="N10" s="85">
+        <v>70</v>
+      </c>
+      <c r="O10" s="85">
+        <f>2*(M10*N10)/(M10+N10)</f>
+        <v>58.333333333333336</v>
+      </c>
+      <c r="P10" s="85">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B11" s="67"/>
+      <c r="C11" s="67"/>
+      <c r="D11" s="67"/>
+      <c r="E11" s="67"/>
+      <c r="F11" s="67"/>
+      <c r="G11" s="67"/>
+      <c r="H11" s="67"/>
+      <c r="I11" s="67"/>
+      <c r="J11" s="67"/>
+      <c r="K11" s="67"/>
+      <c r="L11" s="67"/>
+      <c r="M11" s="67"/>
+      <c r="N11" s="67"/>
+      <c r="O11" s="67"/>
+      <c r="P11" s="67"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B12" s="63" t="s">
+        <v>120</v>
+      </c>
+      <c r="C12" s="53" t="s">
+        <v>160</v>
+      </c>
+      <c r="D12" s="53">
+        <v>0.04</v>
+      </c>
+      <c r="E12" s="53">
+        <v>0</v>
+      </c>
+      <c r="F12" s="85">
+        <v>20</v>
+      </c>
+      <c r="G12" s="85">
+        <v>5</v>
+      </c>
+      <c r="H12" s="85">
+        <v>6</v>
+      </c>
+      <c r="I12" s="85">
+        <v>0</v>
+      </c>
+      <c r="J12" s="85" t="s">
+        <v>169</v>
+      </c>
+      <c r="K12" s="85" t="s">
+        <v>163</v>
+      </c>
+      <c r="L12" s="85">
+        <v>59</v>
+      </c>
+      <c r="M12" s="85">
+        <v>68</v>
+      </c>
+      <c r="N12" s="85">
+        <v>79</v>
+      </c>
+      <c r="O12" s="85">
+        <f>2*(M12*N12)/(M12+N12)</f>
+        <v>73.088435374149654</v>
+      </c>
+      <c r="P12" s="85">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B13" s="63" t="s">
+        <v>121</v>
+      </c>
+      <c r="C13" s="53" t="s">
+        <v>160</v>
+      </c>
+      <c r="D13" s="53">
+        <v>0.04</v>
+      </c>
+      <c r="E13" s="53">
+        <v>0</v>
+      </c>
+      <c r="F13" s="85">
+        <v>20</v>
+      </c>
+      <c r="G13" s="85">
+        <v>5</v>
+      </c>
+      <c r="H13" s="85">
+        <v>6</v>
+      </c>
+      <c r="I13" s="85">
+        <v>0</v>
+      </c>
+      <c r="J13" s="85" t="s">
+        <v>169</v>
+      </c>
+      <c r="K13" s="85" t="s">
+        <v>163</v>
+      </c>
+      <c r="L13" s="85">
+        <v>52</v>
+      </c>
+      <c r="M13" s="85">
+        <v>65</v>
+      </c>
+      <c r="N13" s="85">
+        <v>69</v>
+      </c>
+      <c r="O13" s="85">
+        <f>2*(M13*N13)/(M13+N13)</f>
+        <v>66.940298507462686</v>
+      </c>
+      <c r="P13" s="85">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B14" s="67"/>
+      <c r="C14" s="67"/>
+      <c r="D14" s="67"/>
+      <c r="E14" s="67"/>
+      <c r="F14" s="67"/>
+      <c r="G14" s="67"/>
+      <c r="H14" s="67"/>
+      <c r="I14" s="67"/>
+      <c r="J14" s="67"/>
+      <c r="K14" s="67"/>
+      <c r="L14" s="67"/>
+      <c r="M14" s="67"/>
+      <c r="N14" s="67"/>
+      <c r="O14" s="67"/>
+      <c r="P14" s="67"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B15" s="63" t="s">
+        <v>120</v>
+      </c>
+      <c r="C15" s="53" t="s">
+        <v>160</v>
+      </c>
+      <c r="D15" s="53">
+        <v>0.01</v>
+      </c>
+      <c r="E15" s="53">
+        <v>0</v>
+      </c>
+      <c r="F15" s="85">
+        <v>50</v>
+      </c>
+      <c r="G15" s="85">
+        <v>10</v>
+      </c>
+      <c r="H15" s="85">
+        <v>6</v>
+      </c>
+      <c r="I15" s="85">
+        <v>0</v>
+      </c>
+      <c r="J15" s="85" t="s">
+        <v>169</v>
+      </c>
+      <c r="K15" s="85" t="s">
+        <v>163</v>
+      </c>
+      <c r="L15" s="85">
+        <v>68</v>
+      </c>
+      <c r="M15" s="85">
+        <v>55</v>
+      </c>
+      <c r="N15" s="85">
+        <v>70</v>
+      </c>
+      <c r="O15" s="85">
+        <f>2*(M15*N15)/(M15+N15)</f>
+        <v>61.6</v>
+      </c>
+      <c r="P15" s="85">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B16" s="63" t="s">
+        <v>121</v>
+      </c>
+      <c r="C16" s="53" t="s">
+        <v>160</v>
+      </c>
+      <c r="D16" s="53">
+        <v>0.01</v>
+      </c>
+      <c r="E16" s="53">
+        <v>0</v>
+      </c>
+      <c r="F16" s="85">
+        <v>50</v>
+      </c>
+      <c r="G16" s="85">
+        <v>10</v>
+      </c>
+      <c r="H16" s="85">
+        <v>6</v>
+      </c>
+      <c r="I16" s="85">
+        <v>0</v>
+      </c>
+      <c r="J16" s="85" t="s">
+        <v>169</v>
+      </c>
+      <c r="K16" s="85" t="s">
+        <v>163</v>
+      </c>
+      <c r="L16" s="85">
+        <v>63</v>
+      </c>
+      <c r="M16" s="85">
+        <v>52</v>
+      </c>
+      <c r="N16" s="85">
+        <v>70</v>
+      </c>
+      <c r="O16" s="85">
+        <f>2*(M16*N16)/(M16+N16)</f>
+        <v>59.672131147540981</v>
+      </c>
+      <c r="P16" s="85">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="17" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B17" s="67"/>
+      <c r="C17" s="67"/>
+      <c r="D17" s="67"/>
+      <c r="E17" s="67"/>
+      <c r="F17" s="67"/>
+      <c r="G17" s="67"/>
+      <c r="H17" s="67"/>
+      <c r="I17" s="67"/>
+      <c r="J17" s="67"/>
+      <c r="K17" s="67"/>
+      <c r="L17" s="67"/>
+      <c r="M17" s="67"/>
+      <c r="N17" s="67"/>
+      <c r="O17" s="67"/>
+      <c r="P17" s="67"/>
+    </row>
+    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B18" s="63" t="s">
+        <v>120</v>
+      </c>
+      <c r="C18" s="53" t="s">
+        <v>117</v>
+      </c>
+      <c r="D18" s="94" t="s">
+        <v>132</v>
+      </c>
+      <c r="E18" s="53">
+        <v>0</v>
+      </c>
+      <c r="F18" s="85">
+        <v>5</v>
+      </c>
+      <c r="G18" s="85">
+        <v>10</v>
+      </c>
+      <c r="H18" s="85">
+        <v>0</v>
+      </c>
+      <c r="I18" s="85">
+        <v>0</v>
+      </c>
+      <c r="J18" s="85">
+        <v>0</v>
+      </c>
+      <c r="K18" s="85">
+        <v>0</v>
+      </c>
+      <c r="L18" s="85">
+        <v>53</v>
+      </c>
+      <c r="M18" s="85">
+        <v>50</v>
+      </c>
+      <c r="N18" s="85">
+        <v>51</v>
+      </c>
+      <c r="O18" s="85">
+        <f>2*(M18*N18)/(M18+N18)</f>
+        <v>50.495049504950494</v>
+      </c>
+      <c r="P18" s="85">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="19" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B19" s="63" t="s">
+        <v>121</v>
+      </c>
+      <c r="C19" s="53" t="s">
+        <v>117</v>
+      </c>
+      <c r="D19" s="94" t="s">
+        <v>132</v>
+      </c>
+      <c r="E19" s="53">
+        <v>0</v>
+      </c>
+      <c r="F19" s="85">
+        <v>5</v>
+      </c>
+      <c r="G19" s="85">
+        <v>10</v>
+      </c>
+      <c r="H19" s="85">
+        <v>0</v>
+      </c>
+      <c r="I19" s="85">
+        <v>0</v>
+      </c>
+      <c r="J19" s="85">
+        <v>0</v>
+      </c>
+      <c r="K19" s="85">
+        <v>0</v>
+      </c>
+      <c r="L19" s="85">
+        <v>53</v>
+      </c>
+      <c r="M19" s="85">
+        <v>50</v>
+      </c>
+      <c r="N19" s="85">
+        <v>51</v>
+      </c>
+      <c r="O19" s="85">
+        <f>2*(M19*N19)/(M19+N19)</f>
+        <v>50.495049504950494</v>
+      </c>
+      <c r="P19" s="85">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B20" s="67"/>
+      <c r="C20" s="67"/>
+      <c r="D20" s="95"/>
+      <c r="E20" s="67"/>
+      <c r="F20" s="67"/>
+      <c r="G20" s="67"/>
+      <c r="H20" s="67"/>
+      <c r="I20" s="67"/>
+      <c r="J20" s="67"/>
+      <c r="K20" s="67"/>
+      <c r="L20" s="67"/>
+      <c r="M20" s="67"/>
+      <c r="N20" s="67"/>
+      <c r="O20" s="67"/>
+      <c r="P20" s="67"/>
+    </row>
+    <row r="21" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B21" s="63" t="s">
+        <v>120</v>
+      </c>
+      <c r="C21" s="53" t="s">
+        <v>117</v>
+      </c>
+      <c r="D21" s="94" t="s">
+        <v>171</v>
+      </c>
+      <c r="E21" s="53">
+        <v>0</v>
+      </c>
+      <c r="F21" s="85">
+        <v>5</v>
+      </c>
+      <c r="G21" s="85">
+        <v>10</v>
+      </c>
+      <c r="H21" s="85">
+        <v>0</v>
+      </c>
+      <c r="I21" s="85">
+        <v>0</v>
+      </c>
+      <c r="J21" s="85">
+        <v>0</v>
+      </c>
+      <c r="K21" s="85">
+        <v>0</v>
+      </c>
+      <c r="L21" s="85">
+        <v>53</v>
+      </c>
+      <c r="M21" s="85">
+        <v>50</v>
+      </c>
+      <c r="N21" s="85">
+        <v>51</v>
+      </c>
+      <c r="O21" s="85">
+        <f>2*(M21*N21)/(M21+N21)</f>
+        <v>50.495049504950494</v>
+      </c>
+      <c r="P21" s="85">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="22" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B22" s="63" t="s">
+        <v>121</v>
+      </c>
+      <c r="C22" s="53" t="s">
+        <v>117</v>
+      </c>
+      <c r="D22" s="94" t="s">
+        <v>171</v>
+      </c>
+      <c r="E22" s="53">
+        <v>0</v>
+      </c>
+      <c r="F22" s="85">
+        <v>5</v>
+      </c>
+      <c r="G22" s="85">
+        <v>10</v>
+      </c>
+      <c r="H22" s="85">
+        <v>0</v>
+      </c>
+      <c r="I22" s="85">
+        <v>0</v>
+      </c>
+      <c r="J22" s="85">
+        <v>0</v>
+      </c>
+      <c r="K22" s="85">
+        <v>0</v>
+      </c>
+      <c r="L22" s="85">
+        <v>53</v>
+      </c>
+      <c r="M22" s="85">
+        <v>50</v>
+      </c>
+      <c r="N22" s="85">
+        <v>51</v>
+      </c>
+      <c r="O22" s="85">
+        <f>2*(M22*N22)/(M22+N22)</f>
+        <v>50.495049504950494</v>
+      </c>
+      <c r="P22" s="85">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="23" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B23" s="67"/>
+      <c r="C23" s="67"/>
+      <c r="D23" s="95"/>
+      <c r="E23" s="67"/>
+      <c r="F23" s="67"/>
+      <c r="G23" s="67"/>
+      <c r="H23" s="67"/>
+      <c r="I23" s="67"/>
+      <c r="J23" s="67"/>
+      <c r="K23" s="67"/>
+      <c r="L23" s="67"/>
+      <c r="M23" s="67"/>
+      <c r="N23" s="67"/>
+      <c r="O23" s="67"/>
+      <c r="P23" s="67"/>
+    </row>
+    <row r="24" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B24" s="63" t="s">
+        <v>120</v>
+      </c>
+      <c r="C24" s="53" t="s">
+        <v>117</v>
+      </c>
+      <c r="D24" s="94" t="s">
+        <v>172</v>
+      </c>
+      <c r="E24" s="53">
+        <v>0</v>
+      </c>
+      <c r="F24" s="85">
+        <v>5</v>
+      </c>
+      <c r="G24" s="85">
+        <v>10</v>
+      </c>
+      <c r="H24" s="85">
+        <v>0</v>
+      </c>
+      <c r="I24" s="85">
+        <v>0</v>
+      </c>
+      <c r="J24" s="85">
+        <v>0</v>
+      </c>
+      <c r="K24" s="85">
+        <v>0</v>
+      </c>
+      <c r="L24" s="85">
+        <v>53</v>
+      </c>
+      <c r="M24" s="85">
+        <v>50</v>
+      </c>
+      <c r="N24" s="85">
+        <v>51</v>
+      </c>
+      <c r="O24" s="85">
+        <f>2*(M24*N24)/(M24+N24)</f>
+        <v>50.495049504950494</v>
+      </c>
+      <c r="P24" s="85">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="25" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B25" s="63" t="s">
+        <v>121</v>
+      </c>
+      <c r="C25" s="53" t="s">
+        <v>117</v>
+      </c>
+      <c r="D25" s="94" t="s">
+        <v>172</v>
+      </c>
+      <c r="E25" s="53">
+        <v>0</v>
+      </c>
+      <c r="F25" s="85">
+        <v>5</v>
+      </c>
+      <c r="G25" s="85">
+        <v>10</v>
+      </c>
+      <c r="H25" s="85">
+        <v>0</v>
+      </c>
+      <c r="I25" s="85">
+        <v>0</v>
+      </c>
+      <c r="J25" s="85">
+        <v>0</v>
+      </c>
+      <c r="K25" s="85">
+        <v>0</v>
+      </c>
+      <c r="L25" s="85">
+        <v>53</v>
+      </c>
+      <c r="M25" s="85">
+        <v>50</v>
+      </c>
+      <c r="N25" s="85">
+        <v>51</v>
+      </c>
+      <c r="O25" s="85">
+        <f>2*(M25*N25)/(M25+N25)</f>
+        <v>50.495049504950494</v>
+      </c>
+      <c r="P25" s="85">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="26" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B26" s="67"/>
+      <c r="C26" s="67"/>
+      <c r="D26" s="95"/>
+      <c r="E26" s="67"/>
+      <c r="F26" s="67"/>
+      <c r="G26" s="67"/>
+      <c r="H26" s="67"/>
+      <c r="I26" s="67"/>
+      <c r="J26" s="67"/>
+      <c r="K26" s="67"/>
+      <c r="L26" s="67"/>
+      <c r="M26" s="67"/>
+      <c r="N26" s="67"/>
+      <c r="O26" s="67"/>
+      <c r="P26" s="67"/>
+    </row>
+    <row r="27" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B27" s="67"/>
+      <c r="C27" s="67"/>
+      <c r="D27" s="95"/>
+      <c r="E27" s="67"/>
+      <c r="F27" s="67"/>
+      <c r="G27" s="67"/>
+      <c r="H27" s="67"/>
+      <c r="I27" s="67"/>
+      <c r="J27" s="67"/>
+      <c r="K27" s="67"/>
+      <c r="L27" s="67"/>
+      <c r="M27" s="67"/>
+      <c r="N27" s="67"/>
+      <c r="O27" s="67"/>
+      <c r="P27" s="67"/>
+    </row>
+    <row r="28" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B28" s="67"/>
+      <c r="C28" s="67"/>
+      <c r="D28" s="95"/>
+      <c r="E28" s="67"/>
+      <c r="F28" s="67"/>
+      <c r="G28" s="67"/>
+      <c r="H28" s="67"/>
+      <c r="I28" s="67"/>
+      <c r="J28" s="67"/>
+      <c r="K28" s="67"/>
+      <c r="L28" s="67"/>
+      <c r="M28" s="67"/>
+      <c r="N28" s="67"/>
+      <c r="O28" s="67"/>
+      <c r="P28" s="67"/>
+    </row>
+    <row r="29" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B29" s="67"/>
+      <c r="C29" s="67"/>
+      <c r="D29" s="95"/>
+      <c r="E29" s="67"/>
+      <c r="F29" s="67"/>
+      <c r="G29" s="67"/>
+      <c r="H29" s="67"/>
+      <c r="I29" s="67"/>
+      <c r="J29" s="67"/>
+      <c r="K29" s="67"/>
+      <c r="L29" s="67"/>
+      <c r="M29" s="67"/>
+      <c r="N29" s="67"/>
+      <c r="O29" s="67"/>
+      <c r="P29" s="67"/>
+    </row>
+    <row r="30" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B30" s="67"/>
+      <c r="C30" s="67"/>
+      <c r="D30" s="67"/>
+      <c r="E30" s="67"/>
+      <c r="F30" s="67"/>
+      <c r="G30" s="67"/>
+      <c r="H30" s="67"/>
+      <c r="I30" s="67"/>
+      <c r="J30" s="67"/>
+      <c r="K30" s="67"/>
+      <c r="L30" s="67"/>
+      <c r="M30" s="67"/>
+      <c r="N30" s="67"/>
+      <c r="O30" s="67"/>
+      <c r="P30" s="67"/>
+    </row>
+    <row r="31" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B31" s="67"/>
+      <c r="C31" s="67"/>
+      <c r="D31" s="67"/>
+      <c r="E31" s="67"/>
+      <c r="F31" s="67"/>
+      <c r="G31" s="67"/>
+      <c r="H31" s="67"/>
+      <c r="I31" s="67"/>
+      <c r="J31" s="67"/>
+      <c r="K31" s="67"/>
+      <c r="L31" s="67"/>
+      <c r="M31" s="67"/>
+      <c r="N31" s="67"/>
+      <c r="O31" s="67"/>
+      <c r="P31" s="67"/>
+    </row>
+    <row r="32" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B32" s="67"/>
+      <c r="C32" s="67"/>
+      <c r="D32" s="67"/>
+      <c r="E32" s="67"/>
+      <c r="F32" s="67"/>
+      <c r="G32" s="67"/>
+      <c r="H32" s="67"/>
+      <c r="I32" s="67"/>
+      <c r="J32" s="67"/>
+      <c r="K32" s="67"/>
+      <c r="L32" s="67"/>
+      <c r="M32" s="67"/>
+      <c r="N32" s="67"/>
+      <c r="O32" s="67"/>
+      <c r="P32" s="67"/>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B33" s="67"/>
+      <c r="C33" s="67"/>
+      <c r="D33" s="67"/>
+      <c r="E33" s="67"/>
+      <c r="F33" s="67"/>
+      <c r="G33" s="67"/>
+      <c r="H33" s="67"/>
+      <c r="I33" s="67"/>
+      <c r="J33" s="67"/>
+      <c r="K33" s="67"/>
+      <c r="L33" s="67"/>
+      <c r="M33" s="67"/>
+      <c r="N33" s="67"/>
+      <c r="O33" s="67"/>
+      <c r="P33" s="67"/>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B34" s="67"/>
+      <c r="C34" s="67"/>
+      <c r="D34" s="67"/>
+      <c r="E34" s="67"/>
+      <c r="F34" s="67"/>
+      <c r="G34" s="67"/>
+      <c r="H34" s="67"/>
+      <c r="I34" s="67"/>
+      <c r="J34" s="67"/>
+      <c r="K34" s="67"/>
+      <c r="L34" s="67"/>
+      <c r="M34" s="67"/>
+      <c r="N34" s="67"/>
+      <c r="O34" s="67"/>
+      <c r="P34" s="67"/>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B35" s="67"/>
+      <c r="C35" s="67"/>
+      <c r="D35" s="67"/>
+      <c r="E35" s="67"/>
+      <c r="F35" s="67"/>
+      <c r="G35" s="67"/>
+      <c r="H35" s="67"/>
+      <c r="I35" s="67"/>
+      <c r="J35" s="67"/>
+      <c r="K35" s="67"/>
+      <c r="L35" s="67"/>
+      <c r="M35" s="67"/>
+      <c r="N35" s="67"/>
+      <c r="O35" s="67"/>
+      <c r="P35" s="67"/>
+    </row>
+    <row r="36" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B36" s="67"/>
+      <c r="C36" s="67"/>
+      <c r="D36" s="67"/>
+      <c r="E36" s="67"/>
+      <c r="F36" s="67"/>
+      <c r="G36" s="67"/>
+      <c r="H36" s="67"/>
+      <c r="I36" s="67"/>
+      <c r="J36" s="67"/>
+      <c r="K36" s="67"/>
+      <c r="L36" s="67"/>
+      <c r="M36" s="67"/>
+      <c r="N36" s="67"/>
+      <c r="O36" s="67"/>
+      <c r="P36" s="67"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
